--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_19_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_19_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3699000.124486567</v>
+        <v>-3699717.361102045</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4950248.695730076</v>
+        <v>4950248.695730079</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736549</v>
+        <v>504792.0292736555</v>
       </c>
     </row>
     <row r="9">
@@ -1373,19 +1373,19 @@
         <v>229.1191673765039</v>
       </c>
       <c r="D11" t="n">
-        <v>220.1004714210319</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>241.8426089909374</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>261.0144250789146</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>262.3409051157629</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>174.2835417775414</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>22.53425353909801</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>70.46388924261858</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>103.2926861902832</v>
       </c>
       <c r="V11" t="n">
-        <v>33.15893768291497</v>
+        <v>184.6142276590013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>209.9143271369582</v>
       </c>
       <c r="X11" t="n">
-        <v>229.2145853697048</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>240.6111831659036</v>
+        <v>198.4983810481431</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>157.8252483534483</v>
+        <v>151.3578690099609</v>
       </c>
       <c r="C12" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>45.13854133321418</v>
+        <v>127.1165548494722</v>
       </c>
       <c r="H12" t="n">
-        <v>95.80294554235505</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>56.52047122575469</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>39.02901935393511</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T12" t="n">
         <v>36.49439094626081</v>
       </c>
       <c r="U12" t="n">
-        <v>216.28848525876</v>
+        <v>67.29323155474326</v>
       </c>
       <c r="V12" t="n">
-        <v>226.1116663261494</v>
+        <v>77.1164126221326</v>
       </c>
       <c r="W12" t="n">
-        <v>238.9027100790231</v>
+        <v>89.90745637500629</v>
       </c>
       <c r="X12" t="n">
         <v>46.94256453696659</v>
@@ -1543,7 +1543,7 @@
         <v>17.96311329697629</v>
       </c>
       <c r="H13" t="n">
-        <v>6.363700576783419</v>
+        <v>6.363700576783418</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241.1078504188221</v>
+        <v>241.1078504188222</v>
       </c>
       <c r="C14" t="n">
-        <v>229.1191673765039</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>220.1004714210318</v>
+        <v>220.1004714210319</v>
       </c>
       <c r="E14" t="n">
-        <v>225.0781371114669</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>261.0144250789145</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>66.72203465953402</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.53425353909796</v>
+        <v>22.53425353909799</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>70.46388924261854</v>
       </c>
       <c r="U14" t="n">
-        <v>103.2926861902831</v>
+        <v>103.2926861902832</v>
       </c>
       <c r="V14" t="n">
-        <v>184.6142276590012</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>229.2145853697048</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>240.6111831659036</v>
       </c>
     </row>
     <row r="15">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.829994649431455</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
-        <v>11.09138232743803</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>56.52047122575469</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>145.2410726443114</v>
       </c>
       <c r="T15" t="n">
-        <v>129.9501697535275</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U15" t="n">
-        <v>216.28848525876</v>
+        <v>168.8564895660165</v>
       </c>
       <c r="V15" t="n">
-        <v>226.1116663261494</v>
+        <v>77.11641262213257</v>
       </c>
       <c r="W15" t="n">
-        <v>238.9027100790231</v>
+        <v>89.90745637500626</v>
       </c>
       <c r="X15" t="n">
-        <v>195.9378182409833</v>
+        <v>46.94256453696656</v>
       </c>
       <c r="Y15" t="n">
-        <v>41.60085938290013</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="16">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.7245612935192</v>
+        <v>32.72456129351923</v>
       </c>
       <c r="C16" t="n">
-        <v>18.92455613891968</v>
+        <v>18.92455613891971</v>
       </c>
       <c r="D16" t="n">
-        <v>2.545920536498073</v>
+        <v>2.545920536498102</v>
       </c>
       <c r="E16" t="n">
-        <v>1.493670392277522</v>
+        <v>1.493670392277551</v>
       </c>
       <c r="F16" t="n">
-        <v>1.960594720463831</v>
+        <v>1.96059472046386</v>
       </c>
       <c r="G16" t="n">
-        <v>17.96311329697622</v>
+        <v>17.96311329697625</v>
       </c>
       <c r="H16" t="n">
-        <v>6.363700576783467</v>
+        <v>6.363700576783401</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.83398394224579</v>
+        <v>57.83398394224582</v>
       </c>
       <c r="T16" t="n">
-        <v>80.68894132961879</v>
+        <v>80.68894132961881</v>
       </c>
       <c r="U16" t="n">
-        <v>135.3082370038741</v>
+        <v>135.3082370038742</v>
       </c>
       <c r="V16" t="n">
         <v>109.1326976931448</v>
@@ -1828,10 +1828,10 @@
         <v>134.2995837637581</v>
       </c>
       <c r="X16" t="n">
-        <v>79.94468575956117</v>
+        <v>79.9446857595612</v>
       </c>
       <c r="Y16" t="n">
-        <v>70.81955351562885</v>
+        <v>70.81955351562888</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145.9083003675344</v>
+        <v>145.9083003675343</v>
       </c>
       <c r="C17" t="n">
-        <v>133.9196173252162</v>
+        <v>133.919617325216</v>
       </c>
       <c r="D17" t="n">
-        <v>124.9009213697441</v>
+        <v>124.900921369744</v>
       </c>
       <c r="E17" t="n">
-        <v>146.6430589396497</v>
+        <v>146.6430589396495</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8148750276268</v>
+        <v>165.8148750276267</v>
       </c>
       <c r="G17" t="n">
-        <v>167.1413550644751</v>
+        <v>167.141355064475</v>
       </c>
       <c r="H17" t="n">
-        <v>79.08399172625366</v>
+        <v>79.08399172625352</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.093136138995447</v>
+        <v>8.093136138995305</v>
       </c>
       <c r="V17" t="n">
-        <v>89.41467760771354</v>
+        <v>89.4146776077134</v>
       </c>
       <c r="W17" t="n">
-        <v>114.7147770856704</v>
+        <v>114.7147770856703</v>
       </c>
       <c r="X17" t="n">
-        <v>134.0150353184171</v>
+        <v>134.0150353184169</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.4116331146158</v>
+        <v>145.4116331146157</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I18" t="n">
-        <v>56.52047122575469</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>151.5404913067172</v>
+        <v>55.73754576436122</v>
       </c>
     </row>
     <row r="19">
@@ -2014,16 +2014,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>108.9276466229024</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.5756943977516</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>40.21324716010344</v>
+        <v>16.6668270380803</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,25 +2044,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.36025740485484</v>
+        <v>15.36025740485483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>206.8292376462626</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.6841950336356</v>
       </c>
       <c r="U19" t="n">
-        <v>40.10868695258647</v>
+        <v>40.10868695258633</v>
       </c>
       <c r="V19" t="n">
-        <v>13.93314764185709</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>39.10003371247035</v>
+        <v>39.10003371247021</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,22 +2081,22 @@
         <v>145.9083003675343</v>
       </c>
       <c r="C20" t="n">
-        <v>133.9196173252161</v>
+        <v>133.919617325216</v>
       </c>
       <c r="D20" t="n">
-        <v>124.9009213697441</v>
+        <v>124.900921369744</v>
       </c>
       <c r="E20" t="n">
-        <v>146.6430589396496</v>
+        <v>146.6430589396495</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8148750276268</v>
+        <v>165.8148750276267</v>
       </c>
       <c r="G20" t="n">
-        <v>167.1413550644751</v>
+        <v>167.141355064475</v>
       </c>
       <c r="H20" t="n">
-        <v>79.08399172625357</v>
+        <v>79.08399172625352</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.093136138995362</v>
+        <v>8.093136138995305</v>
       </c>
       <c r="V20" t="n">
-        <v>89.41467760771346</v>
+        <v>89.4146776077134</v>
       </c>
       <c r="W20" t="n">
-        <v>114.7147770856704</v>
+        <v>114.7147770856703</v>
       </c>
       <c r="X20" t="n">
-        <v>134.015035318417</v>
+        <v>134.0150353184169</v>
       </c>
       <c r="Y20" t="n">
         <v>145.4116331146157</v>
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>127.1165548494722</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>56.52047122575469</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>39.02901935393511</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>216.28848525876</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>111.5946773909344</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>190.5961130869169</v>
+        <v>151.5404913067163</v>
       </c>
     </row>
     <row r="22">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.958367000993</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>155.3589542808002</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.5756943977516</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>31.83450080312342</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,25 +2281,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.36025740485484</v>
+        <v>15.36025740485483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>135.7881746594375</v>
       </c>
       <c r="S22" t="n">
-        <v>33.65281014747553</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.6841950336356</v>
       </c>
       <c r="U22" t="n">
-        <v>40.10868695258639</v>
+        <v>284.303490707891</v>
       </c>
       <c r="V22" t="n">
-        <v>13.933147641857</v>
+        <v>13.93314764185695</v>
       </c>
       <c r="W22" t="n">
-        <v>39.10003371247026</v>
+        <v>39.10003371247021</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,22 +2318,22 @@
         <v>145.9083003675343</v>
       </c>
       <c r="C23" t="n">
-        <v>133.9196173252161</v>
+        <v>133.919617325216</v>
       </c>
       <c r="D23" t="n">
-        <v>124.9009213697441</v>
+        <v>124.900921369744</v>
       </c>
       <c r="E23" t="n">
-        <v>146.6430589396496</v>
+        <v>146.6430589396495</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8148750276268</v>
+        <v>165.8148750276267</v>
       </c>
       <c r="G23" t="n">
-        <v>167.1413550644751</v>
+        <v>167.141355064475</v>
       </c>
       <c r="H23" t="n">
-        <v>79.08399172625357</v>
+        <v>79.08399172625353</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>8.093136138995362</v>
+        <v>8.093136138995296</v>
       </c>
       <c r="V23" t="n">
-        <v>89.41467760771346</v>
+        <v>89.4146776077134</v>
       </c>
       <c r="W23" t="n">
-        <v>114.7147770856704</v>
+        <v>114.7147770856703</v>
       </c>
       <c r="X23" t="n">
-        <v>134.015035318417</v>
+        <v>134.0150353184169</v>
       </c>
       <c r="Y23" t="n">
         <v>145.4116331146157</v>
@@ -2409,13 +2409,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.1165548494722</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I24" t="n">
-        <v>56.52047122575469</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,13 +2445,13 @@
         <v>39.02901935393511</v>
       </c>
       <c r="S24" t="n">
-        <v>145.2410726443114</v>
+        <v>127.6640881169133</v>
       </c>
       <c r="T24" t="n">
         <v>185.4896446502776</v>
       </c>
       <c r="U24" t="n">
-        <v>167.3978914242455</v>
+        <v>216.28848525876</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,19 +2485,19 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>166.958367000993</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>155.3589542808002</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>40.21324716010344</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>15.36025740485483</v>
       </c>
       <c r="R25" t="n">
-        <v>135.7881746594375</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>198.756435715125</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.6841950336356</v>
       </c>
       <c r="U25" t="n">
-        <v>40.10868695258639</v>
+        <v>40.10868695258633</v>
       </c>
       <c r="V25" t="n">
-        <v>13.933147641857</v>
+        <v>13.93314764185695</v>
       </c>
       <c r="W25" t="n">
-        <v>39.10003371247026</v>
+        <v>39.10003371247021</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>38.92856863574556</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>222.1594952593534</v>
       </c>
       <c r="I26" t="n">
-        <v>46.57653758629995</v>
+        <v>46.57653758629993</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.41020702090999</v>
+        <v>70.41020702090998</v>
       </c>
       <c r="T26" t="n">
         <v>118.3398427244305</v>
@@ -2652,7 +2652,7 @@
         <v>95.80294554235505</v>
       </c>
       <c r="I27" t="n">
-        <v>56.52047122575469</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.60051477533123</v>
+        <v>80.60051477533122</v>
       </c>
       <c r="C28" t="n">
-        <v>66.80050962073172</v>
+        <v>66.8005096207317</v>
       </c>
       <c r="D28" t="n">
-        <v>50.42187401831011</v>
+        <v>50.42187401831009</v>
       </c>
       <c r="E28" t="n">
-        <v>49.36962387408956</v>
+        <v>49.36962387408954</v>
       </c>
       <c r="F28" t="n">
-        <v>49.83654820227586</v>
+        <v>49.83654820227585</v>
       </c>
       <c r="G28" t="n">
-        <v>65.83906677878825</v>
+        <v>65.83906677878824</v>
       </c>
       <c r="H28" t="n">
-        <v>54.23965405859541</v>
+        <v>54.23965405859539</v>
       </c>
       <c r="I28" t="n">
-        <v>33.45639417554627</v>
+        <v>33.45639417554679</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66887443723276</v>
+        <v>34.66887443723293</v>
       </c>
       <c r="S28" t="n">
-        <v>105.7099374240577</v>
+        <v>105.7099374240578</v>
       </c>
       <c r="T28" t="n">
         <v>128.5648948114308</v>
       </c>
       <c r="U28" t="n">
-        <v>183.1841904856862</v>
+        <v>183.184190485686</v>
       </c>
       <c r="V28" t="n">
         <v>157.0086511749568</v>
@@ -2810,7 +2810,7 @@
         <v>222.1594952593534</v>
       </c>
       <c r="I29" t="n">
-        <v>46.57653758629993</v>
+        <v>46.57653758629995</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.41020702090998</v>
+        <v>70.41020702090999</v>
       </c>
       <c r="T29" t="n">
-        <v>118.3398427244305</v>
+        <v>118.3398427244306</v>
       </c>
       <c r="U29" t="n">
         <v>151.1686396720952</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>39.02901935393511</v>
+        <v>39.02901935393512</v>
       </c>
       <c r="S30" t="n">
         <v>145.2410726443114</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.60051477533122</v>
+        <v>80.60051477533123</v>
       </c>
       <c r="C31" t="n">
-        <v>66.8005096207317</v>
+        <v>66.80050962073172</v>
       </c>
       <c r="D31" t="n">
-        <v>50.42187401831009</v>
+        <v>50.42187401831011</v>
       </c>
       <c r="E31" t="n">
-        <v>49.36962387408954</v>
+        <v>49.36962387408956</v>
       </c>
       <c r="F31" t="n">
-        <v>49.83654820227585</v>
+        <v>49.83654820227586</v>
       </c>
       <c r="G31" t="n">
-        <v>65.83906677878825</v>
+        <v>65.83906677878826</v>
       </c>
       <c r="H31" t="n">
-        <v>54.23965405859538</v>
+        <v>54.2396540585954</v>
       </c>
       <c r="I31" t="n">
-        <v>33.45639417554678</v>
+        <v>33.45639417554681</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66887443723274</v>
+        <v>34.66887443723276</v>
       </c>
       <c r="S31" t="n">
         <v>105.7099374240578</v>
@@ -3047,7 +3047,7 @@
         <v>222.1594952593534</v>
       </c>
       <c r="I32" t="n">
-        <v>46.57653758629995</v>
+        <v>46.57653758629993</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.41020702090999</v>
+        <v>70.41020702090998</v>
       </c>
       <c r="T32" t="n">
         <v>118.3398427244305</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>39.02901935393511</v>
+        <v>39.02901935393512</v>
       </c>
       <c r="S33" t="n">
         <v>145.2410726443114</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.60051477533123</v>
+        <v>80.60051477533122</v>
       </c>
       <c r="C34" t="n">
-        <v>66.80050962073172</v>
+        <v>66.8005096207317</v>
       </c>
       <c r="D34" t="n">
-        <v>50.42187401831011</v>
+        <v>50.42187401831009</v>
       </c>
       <c r="E34" t="n">
-        <v>49.36962387408956</v>
+        <v>49.36962387408954</v>
       </c>
       <c r="F34" t="n">
-        <v>49.83654820227586</v>
+        <v>49.83654820227585</v>
       </c>
       <c r="G34" t="n">
-        <v>65.83906677878825</v>
+        <v>65.83906677878824</v>
       </c>
       <c r="H34" t="n">
-        <v>54.23965405859541</v>
+        <v>54.23965405859539</v>
       </c>
       <c r="I34" t="n">
-        <v>33.4563941755463</v>
+        <v>33.45639417554683</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66887443723276</v>
+        <v>34.66887443723225</v>
       </c>
       <c r="S34" t="n">
         <v>105.7099374240578</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>218.5735968797241</v>
+        <v>218.5735968797242</v>
       </c>
       <c r="C35" t="n">
         <v>206.5849138374059</v>
@@ -3278,7 +3278,7 @@
         <v>238.4801715398166</v>
       </c>
       <c r="G35" t="n">
-        <v>239.8066515766648</v>
+        <v>239.8066515766649</v>
       </c>
       <c r="H35" t="n">
         <v>151.7492882384434</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>47.92963570352052</v>
+        <v>47.92963570352058</v>
       </c>
       <c r="U35" t="n">
-        <v>80.75843265118516</v>
+        <v>80.75843265118522</v>
       </c>
       <c r="V35" t="n">
         <v>162.0799741199033</v>
@@ -3332,7 +3332,7 @@
         <v>206.6803318306068</v>
       </c>
       <c r="Y35" t="n">
-        <v>218.0769296268055</v>
+        <v>218.0769296268056</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3360,7 @@
         <v>127.1165548494722</v>
       </c>
       <c r="H36" t="n">
-        <v>19.47429228220996</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I36" t="n">
         <v>56.52047122575469</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>39.02901935393511</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>145.2410726443114</v>
@@ -3399,7 +3399,7 @@
         <v>185.4896446502776</v>
       </c>
       <c r="U36" t="n">
-        <v>216.28848525876</v>
+        <v>178.9888513525506</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.22257732122881</v>
+        <v>10.19030775442127</v>
       </c>
       <c r="C37" t="n">
-        <v>167.9198098429365</v>
+        <v>42.63581932673225</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>40.21324716010344</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,31 +3466,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.36025740485484</v>
+        <v>15.36025740485485</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>35.2997304031478</v>
+        <v>35.29973040314786</v>
       </c>
       <c r="T37" t="n">
-        <v>58.15468779052081</v>
+        <v>58.15468779052087</v>
       </c>
       <c r="U37" t="n">
-        <v>112.7739834647762</v>
+        <v>112.7739834647763</v>
       </c>
       <c r="V37" t="n">
-        <v>86.5984441540468</v>
+        <v>86.59844415404686</v>
       </c>
       <c r="W37" t="n">
-        <v>111.7653302246601</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>57.41043222046318</v>
+        <v>57.41043222046324</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.28529997653087</v>
+        <v>48.28529997653092</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>218.5735968797241</v>
+        <v>218.5735968797242</v>
       </c>
       <c r="C38" t="n">
         <v>206.5849138374059</v>
@@ -3515,7 +3515,7 @@
         <v>238.4801715398166</v>
       </c>
       <c r="G38" t="n">
-        <v>239.8066515766648</v>
+        <v>239.8066515766649</v>
       </c>
       <c r="H38" t="n">
         <v>151.7492882384434</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>47.92963570352052</v>
+        <v>47.92963570352055</v>
       </c>
       <c r="U38" t="n">
-        <v>80.75843265118516</v>
+        <v>80.75843265118519</v>
       </c>
       <c r="V38" t="n">
         <v>162.0799741199033</v>
@@ -3569,7 +3569,7 @@
         <v>206.6803318306068</v>
       </c>
       <c r="Y38" t="n">
-        <v>218.0769296268055</v>
+        <v>218.0769296268056</v>
       </c>
     </row>
     <row r="39">
@@ -3594,13 +3594,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>127.1165548494722</v>
+        <v>107.3083728150822</v>
       </c>
       <c r="H39" t="n">
         <v>95.80294554235505</v>
       </c>
       <c r="I39" t="n">
-        <v>56.52047122575469</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>39.02901935393512</v>
       </c>
       <c r="S39" t="n">
-        <v>107.941438738102</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T39" t="n">
         <v>185.4896446502776</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10.19030775442121</v>
+        <v>10.19030775442124</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3670,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.20947814536683</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>40.21324716010344</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>15.36025740485485</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>35.2997304031478</v>
+        <v>35.29973040314783</v>
       </c>
       <c r="T40" t="n">
-        <v>58.15468779052081</v>
+        <v>58.15468779052084</v>
       </c>
       <c r="U40" t="n">
         <v>112.7739834647762</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>86.59844415404683</v>
       </c>
       <c r="W40" t="n">
-        <v>129.5481597961442</v>
+        <v>111.7653302246601</v>
       </c>
       <c r="X40" t="n">
-        <v>57.41043222046318</v>
+        <v>57.41043222046321</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.28529997653087</v>
+        <v>48.28529997653089</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>218.5735968797241</v>
+        <v>218.5735968797242</v>
       </c>
       <c r="C41" t="n">
-        <v>206.5849138374058</v>
+        <v>206.5849138374059</v>
       </c>
       <c r="D41" t="n">
-        <v>197.5662178819338</v>
+        <v>197.5662178819339</v>
       </c>
       <c r="E41" t="n">
         <v>219.3083554518394</v>
       </c>
       <c r="F41" t="n">
-        <v>238.4801715398165</v>
+        <v>238.4801715398166</v>
       </c>
       <c r="G41" t="n">
-        <v>239.8066515766648</v>
+        <v>239.8066515766649</v>
       </c>
       <c r="H41" t="n">
-        <v>151.7492882384433</v>
+        <v>151.7492882384434</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>47.9296357035205</v>
+        <v>47.92963570352055</v>
       </c>
       <c r="U41" t="n">
-        <v>80.75843265118513</v>
+        <v>80.75843265118519</v>
       </c>
       <c r="V41" t="n">
-        <v>162.0799741199032</v>
+        <v>162.0799741199033</v>
       </c>
       <c r="W41" t="n">
-        <v>187.3800735978601</v>
+        <v>187.3800735978602</v>
       </c>
       <c r="X41" t="n">
-        <v>206.6803318306067</v>
+        <v>206.6803318306068</v>
       </c>
       <c r="Y41" t="n">
-        <v>218.0769296268055</v>
+        <v>218.0769296268056</v>
       </c>
     </row>
     <row r="42">
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>39.02901935393511</v>
+        <v>39.02901935393512</v>
       </c>
       <c r="S42" t="n">
-        <v>145.2410726443114</v>
+        <v>68.91241938416688</v>
       </c>
       <c r="T42" t="n">
-        <v>109.1609913901333</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U42" t="n">
         <v>216.28848525876</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10.19030775442118</v>
+        <v>10.19030775442124</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3940,31 +3940,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.36025740485484</v>
+        <v>15.36025740485485</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>77.93554972988062</v>
+        <v>35.29973040314783</v>
       </c>
       <c r="T43" t="n">
-        <v>58.15468779052078</v>
+        <v>58.15468779052084</v>
       </c>
       <c r="U43" t="n">
-        <v>284.303490707891</v>
+        <v>112.7739834647762</v>
       </c>
       <c r="V43" t="n">
-        <v>86.59844415404677</v>
+        <v>86.59844415404683</v>
       </c>
       <c r="W43" t="n">
-        <v>111.76533022466</v>
+        <v>111.7653302246601</v>
       </c>
       <c r="X43" t="n">
-        <v>57.41043222046315</v>
+        <v>100.0462515471958</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.28529997653084</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>218.5735968797242</v>
+        <v>218.5735968797241</v>
       </c>
       <c r="C44" t="n">
         <v>206.5849138374059</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>47.92963570352056</v>
+        <v>47.92963570352052</v>
       </c>
       <c r="U44" t="n">
-        <v>80.75843265118519</v>
+        <v>80.75843265118516</v>
       </c>
       <c r="V44" t="n">
         <v>162.0799741199033</v>
@@ -4043,7 +4043,7 @@
         <v>206.6803318306068</v>
       </c>
       <c r="Y44" t="n">
-        <v>218.0769296268056</v>
+        <v>218.0769296268055</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>95.80294554235505</v>
       </c>
       <c r="I45" t="n">
-        <v>56.5204712257547</v>
+        <v>56.52047122575469</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.02901935393515</v>
+        <v>39.02901935393512</v>
       </c>
       <c r="S45" t="n">
         <v>145.2410726443114</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10.19030775442124</v>
+        <v>10.19030775442121</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>40.21324716010345</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4177,31 +4177,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.36025740485488</v>
+        <v>15.36025740485485</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>98.97613287670058</v>
+        <v>58.29596138841121</v>
       </c>
       <c r="T46" t="n">
-        <v>58.15468779052084</v>
+        <v>58.15468779052081</v>
       </c>
       <c r="U46" t="n">
         <v>112.7739834647762</v>
       </c>
       <c r="V46" t="n">
-        <v>86.59844415404683</v>
+        <v>86.5984441540468</v>
       </c>
       <c r="W46" t="n">
         <v>111.7653302246601</v>
       </c>
       <c r="X46" t="n">
-        <v>57.41043222046321</v>
+        <v>57.41043222046318</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.28529997653089</v>
+        <v>48.28529997653087</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>991.688689952338</v>
+        <v>702.4633782376111</v>
       </c>
       <c r="C11" t="n">
-        <v>760.255187551829</v>
+        <v>471.0298758371021</v>
       </c>
       <c r="D11" t="n">
-        <v>537.9314790457362</v>
+        <v>471.0298758371021</v>
       </c>
       <c r="E11" t="n">
-        <v>293.6460154185266</v>
+        <v>471.0298758371021</v>
       </c>
       <c r="F11" t="n">
-        <v>29.99508099538057</v>
+        <v>471.0298758371021</v>
       </c>
       <c r="G11" t="n">
-        <v>29.99508099538057</v>
+        <v>206.0390625888567</v>
       </c>
       <c r="H11" t="n">
-        <v>29.99508099538057</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I11" t="n">
-        <v>29.99508099538057</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J11" t="n">
-        <v>152.9789828377824</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K11" t="n">
-        <v>469.5331892888865</v>
+        <v>346.5492874464848</v>
       </c>
       <c r="L11" t="n">
-        <v>469.5331892888865</v>
+        <v>346.5492874464848</v>
       </c>
       <c r="M11" t="n">
-        <v>757.3757951333594</v>
+        <v>717.738414764319</v>
       </c>
       <c r="N11" t="n">
-        <v>1128.564922451194</v>
+        <v>1088.927542082153</v>
       </c>
       <c r="O11" t="n">
-        <v>1499.754049769029</v>
+        <v>1185.212869005931</v>
       </c>
       <c r="P11" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="Q11" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R11" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S11" t="n">
-        <v>1499.754049769029</v>
+        <v>1476.992177507313</v>
       </c>
       <c r="T11" t="n">
-        <v>1499.754049769029</v>
+        <v>1405.816531807698</v>
       </c>
       <c r="U11" t="n">
-        <v>1499.754049769029</v>
+        <v>1301.480485150846</v>
       </c>
       <c r="V11" t="n">
-        <v>1466.260173321639</v>
+        <v>1115.001467313471</v>
       </c>
       <c r="W11" t="n">
-        <v>1466.260173321639</v>
+        <v>902.9667934377557</v>
       </c>
       <c r="X11" t="n">
-        <v>1234.730289109816</v>
+        <v>902.9667934377557</v>
       </c>
       <c r="Y11" t="n">
-        <v>991.688689952338</v>
+        <v>702.4633782376111</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>525.8490751392221</v>
+        <v>797.7511442880004</v>
       </c>
       <c r="C12" t="n">
-        <v>364.1454023801768</v>
+        <v>636.0474715289552</v>
       </c>
       <c r="D12" t="n">
-        <v>364.1454023801768</v>
+        <v>497.2088345191672</v>
       </c>
       <c r="E12" t="n">
-        <v>364.1454023801768</v>
+        <v>350.1808245760384</v>
       </c>
       <c r="F12" t="n">
-        <v>229.4516043300512</v>
+        <v>215.4870265259127</v>
       </c>
       <c r="G12" t="n">
-        <v>183.8571181348854</v>
+        <v>87.08646607190045</v>
       </c>
       <c r="H12" t="n">
-        <v>87.08646607190046</v>
+        <v>87.08646607190045</v>
       </c>
       <c r="I12" t="n">
-        <v>29.99508099538057</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J12" t="n">
-        <v>29.99508099538057</v>
+        <v>120.6157572122717</v>
       </c>
       <c r="K12" t="n">
-        <v>311.3868694948438</v>
+        <v>402.0075457117349</v>
       </c>
       <c r="L12" t="n">
-        <v>682.5759968126783</v>
+        <v>402.0075457117349</v>
       </c>
       <c r="M12" t="n">
-        <v>682.5759968126783</v>
+        <v>566.2933322920182</v>
       </c>
       <c r="N12" t="n">
-        <v>1053.765124130513</v>
+        <v>566.2933322920182</v>
       </c>
       <c r="O12" t="n">
-        <v>1136.282244073359</v>
+        <v>937.4824596098526</v>
       </c>
       <c r="P12" t="n">
-        <v>1499.754049769029</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="Q12" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R12" t="n">
-        <v>1499.754049769029</v>
+        <v>1460.330797896366</v>
       </c>
       <c r="S12" t="n">
-        <v>1499.754049769029</v>
+        <v>1313.622643710193</v>
       </c>
       <c r="T12" t="n">
-        <v>1462.891028611189</v>
+        <v>1276.759622552354</v>
       </c>
       <c r="U12" t="n">
-        <v>1244.417811178098</v>
+        <v>1208.786661385946</v>
       </c>
       <c r="V12" t="n">
-        <v>1016.022188626432</v>
+        <v>1130.891295100964</v>
       </c>
       <c r="W12" t="n">
-        <v>774.7063198597424</v>
+        <v>1040.075682600958</v>
       </c>
       <c r="X12" t="n">
-        <v>727.2895880042206</v>
+        <v>992.6589507454358</v>
       </c>
       <c r="Y12" t="n">
-        <v>685.2685179204831</v>
+        <v>950.6378806616983</v>
       </c>
     </row>
     <row r="13">
@@ -5173,52 +5173,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.74412711853113</v>
+        <v>79.74412711853111</v>
       </c>
       <c r="C13" t="n">
-        <v>60.62841384689502</v>
+        <v>60.628413846895</v>
       </c>
       <c r="D13" t="n">
-        <v>58.05677694134135</v>
+        <v>58.05677694134133</v>
       </c>
       <c r="E13" t="n">
-        <v>56.5480189693438</v>
+        <v>56.54801896934378</v>
       </c>
       <c r="F13" t="n">
-        <v>54.56762026180452</v>
+        <v>54.5676202618045</v>
       </c>
       <c r="G13" t="n">
-        <v>36.42306137596989</v>
+        <v>36.42306137596987</v>
       </c>
       <c r="H13" t="n">
-        <v>29.99508099538057</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I13" t="n">
-        <v>29.99508099538057</v>
+        <v>29.99508099538136</v>
       </c>
       <c r="J13" t="n">
-        <v>29.99508099538057</v>
+        <v>29.99508099538136</v>
       </c>
       <c r="K13" t="n">
-        <v>94.90588907899621</v>
+        <v>94.90588907899701</v>
       </c>
       <c r="L13" t="n">
-        <v>235.5746640210047</v>
+        <v>235.5746640210055</v>
       </c>
       <c r="M13" t="n">
-        <v>395.8076110331837</v>
+        <v>395.8076110331846</v>
       </c>
       <c r="N13" t="n">
-        <v>555.4650341729186</v>
+        <v>555.4650341729196</v>
       </c>
       <c r="O13" t="n">
-        <v>692.015952423721</v>
+        <v>692.015952423722</v>
       </c>
       <c r="P13" t="n">
-        <v>787.574676917875</v>
+        <v>787.5746769178759</v>
       </c>
       <c r="Q13" t="n">
-        <v>787.574676917875</v>
+        <v>787.5746769178759</v>
       </c>
       <c r="R13" t="n">
         <v>787.5746769178759</v>
@@ -5239,7 +5239,7 @@
         <v>265.0863499152073</v>
       </c>
       <c r="X13" t="n">
-        <v>184.3341420772667</v>
+        <v>184.3341420772666</v>
       </c>
       <c r="Y13" t="n">
         <v>112.7992395362273</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>711.1039455499287</v>
+        <v>583.3657185302095</v>
       </c>
       <c r="C14" t="n">
-        <v>479.6704431494197</v>
+        <v>583.3657185302095</v>
       </c>
       <c r="D14" t="n">
-        <v>257.346734643327</v>
+        <v>361.0420100241167</v>
       </c>
       <c r="E14" t="n">
-        <v>29.99508099538057</v>
+        <v>361.0420100241167</v>
       </c>
       <c r="F14" t="n">
-        <v>29.99508099538057</v>
+        <v>97.39107560097048</v>
       </c>
       <c r="G14" t="n">
-        <v>29.99508099538057</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="H14" t="n">
-        <v>29.99508099538057</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I14" t="n">
-        <v>29.99508099538057</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J14" t="n">
-        <v>29.99508099538057</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K14" t="n">
-        <v>29.99508099538057</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="L14" t="n">
-        <v>386.1866678155248</v>
+        <v>401.1842083132149</v>
       </c>
       <c r="M14" t="n">
-        <v>757.3757951333594</v>
+        <v>401.1842083132149</v>
       </c>
       <c r="N14" t="n">
-        <v>1128.564922451194</v>
+        <v>772.3733356310493</v>
       </c>
       <c r="O14" t="n">
-        <v>1499.754049769029</v>
+        <v>1143.562462948884</v>
       </c>
       <c r="P14" t="n">
-        <v>1499.754049769029</v>
+        <v>1340.450796129693</v>
       </c>
       <c r="Q14" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R14" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S14" t="n">
-        <v>1476.992177507314</v>
+        <v>1476.992177507313</v>
       </c>
       <c r="T14" t="n">
-        <v>1476.992177507314</v>
+        <v>1405.816531807698</v>
       </c>
       <c r="U14" t="n">
-        <v>1372.656130850462</v>
+        <v>1301.480485150846</v>
       </c>
       <c r="V14" t="n">
-        <v>1186.177113013087</v>
+        <v>1301.480485150846</v>
       </c>
       <c r="W14" t="n">
-        <v>1186.177113013087</v>
+        <v>1301.480485150846</v>
       </c>
       <c r="X14" t="n">
-        <v>954.6472288012642</v>
+        <v>1069.950600939023</v>
       </c>
       <c r="Y14" t="n">
-        <v>954.6472288012642</v>
+        <v>826.9090017815449</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>245.3178925073909</v>
+        <v>387.6287758407337</v>
       </c>
       <c r="C15" t="n">
-        <v>234.1144760150293</v>
+        <v>225.9251030816884</v>
       </c>
       <c r="D15" t="n">
-        <v>234.1144760150293</v>
+        <v>87.08646607190045</v>
       </c>
       <c r="E15" t="n">
-        <v>87.08646607190046</v>
+        <v>87.08646607190045</v>
       </c>
       <c r="F15" t="n">
-        <v>87.08646607190046</v>
+        <v>87.08646607190045</v>
       </c>
       <c r="G15" t="n">
-        <v>87.08646607190046</v>
+        <v>87.08646607190045</v>
       </c>
       <c r="H15" t="n">
-        <v>87.08646607190046</v>
+        <v>87.08646607190045</v>
       </c>
       <c r="I15" t="n">
-        <v>29.99508099538057</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J15" t="n">
         <v>120.6157572122717</v>
@@ -5361,46 +5361,46 @@
         <v>402.0075457117349</v>
       </c>
       <c r="L15" t="n">
-        <v>773.1966730295694</v>
+        <v>402.0075457117349</v>
       </c>
       <c r="M15" t="n">
-        <v>937.4824596098535</v>
+        <v>773.1966730295692</v>
       </c>
       <c r="N15" t="n">
-        <v>937.4824596098535</v>
+        <v>1144.385800347404</v>
       </c>
       <c r="O15" t="n">
-        <v>937.4824596098535</v>
+        <v>1144.385800347404</v>
       </c>
       <c r="P15" t="n">
-        <v>1300.954265305523</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="Q15" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R15" t="n">
-        <v>1460.330797896367</v>
+        <v>1460.330797896366</v>
       </c>
       <c r="S15" t="n">
-        <v>1313.622643710194</v>
+        <v>1313.622643710193</v>
       </c>
       <c r="T15" t="n">
-        <v>1182.359845979358</v>
+        <v>1126.25936628567</v>
       </c>
       <c r="U15" t="n">
-        <v>963.886628546267</v>
+        <v>955.6972556129263</v>
       </c>
       <c r="V15" t="n">
-        <v>735.491005994601</v>
+        <v>877.8018893279439</v>
       </c>
       <c r="W15" t="n">
-        <v>494.175137227911</v>
+        <v>786.9862768279376</v>
       </c>
       <c r="X15" t="n">
-        <v>296.2581491057056</v>
+        <v>739.5695449724158</v>
       </c>
       <c r="Y15" t="n">
-        <v>254.2370790219681</v>
+        <v>547.0482186219946</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.74412711853094</v>
+        <v>79.74412711853054</v>
       </c>
       <c r="C16" t="n">
-        <v>60.62841384689489</v>
+        <v>60.62841384689445</v>
       </c>
       <c r="D16" t="n">
-        <v>58.05677694134124</v>
+        <v>58.05677694134081</v>
       </c>
       <c r="E16" t="n">
-        <v>56.54801896934362</v>
+        <v>56.54801896934327</v>
       </c>
       <c r="F16" t="n">
-        <v>54.5676202618044</v>
+        <v>54.56762026180402</v>
       </c>
       <c r="G16" t="n">
-        <v>36.42306137596994</v>
+        <v>36.42306137596985</v>
       </c>
       <c r="H16" t="n">
-        <v>29.99508099538057</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I16" t="n">
-        <v>29.99508099538057</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J16" t="n">
-        <v>29.99508099538057</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K16" t="n">
         <v>94.90588907899621</v>
@@ -5446,40 +5446,40 @@
         <v>395.8076110331838</v>
       </c>
       <c r="N16" t="n">
-        <v>555.4650341729186</v>
+        <v>555.4650341729188</v>
       </c>
       <c r="O16" t="n">
-        <v>692.015952423721</v>
+        <v>692.0159524237212</v>
       </c>
       <c r="P16" t="n">
-        <v>787.574676917875</v>
+        <v>787.5746769178752</v>
       </c>
       <c r="Q16" t="n">
-        <v>787.574676917875</v>
+        <v>787.5746769178752</v>
       </c>
       <c r="R16" t="n">
-        <v>787.574676917875</v>
+        <v>787.5746769178752</v>
       </c>
       <c r="S16" t="n">
-        <v>729.1565113196469</v>
+        <v>729.1565113196471</v>
       </c>
       <c r="T16" t="n">
         <v>647.6525301786179</v>
       </c>
       <c r="U16" t="n">
-        <v>510.9775433060178</v>
+        <v>510.9775433060177</v>
       </c>
       <c r="V16" t="n">
-        <v>400.742495131124</v>
+        <v>400.7424951311239</v>
       </c>
       <c r="W16" t="n">
-        <v>265.0863499152069</v>
+        <v>265.0863499152067</v>
       </c>
       <c r="X16" t="n">
-        <v>184.3341420772663</v>
+        <v>184.334142077266</v>
       </c>
       <c r="Y16" t="n">
-        <v>112.7992395362271</v>
+        <v>112.7992395362267</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>855.7565147862546</v>
+        <v>855.7565147862539</v>
       </c>
       <c r="C17" t="n">
-        <v>720.484174053713</v>
+        <v>720.4841740537122</v>
       </c>
       <c r="D17" t="n">
-        <v>594.3216272155876</v>
+        <v>594.3216272155871</v>
       </c>
       <c r="E17" t="n">
-        <v>446.1973252563455</v>
+        <v>446.1973252563453</v>
       </c>
       <c r="F17" t="n">
         <v>278.7075525011669</v>
       </c>
       <c r="G17" t="n">
-        <v>109.8779009208893</v>
+        <v>109.8779009208892</v>
       </c>
       <c r="H17" t="n">
-        <v>29.99508099538057</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I17" t="n">
-        <v>29.99508099538057</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J17" t="n">
-        <v>29.99508099538057</v>
+        <v>152.9789828377824</v>
       </c>
       <c r="K17" t="n">
-        <v>283.5313607309288</v>
+        <v>469.5331892888867</v>
       </c>
       <c r="L17" t="n">
-        <v>283.5313607309288</v>
+        <v>840.7223166067211</v>
       </c>
       <c r="M17" t="n">
-        <v>654.7204880487634</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="N17" t="n">
-        <v>1025.909615366598</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="O17" t="n">
-        <v>1025.909615366598</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="P17" t="n">
-        <v>1340.450796129694</v>
+        <v>1340.450796129693</v>
       </c>
       <c r="Q17" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R17" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S17" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="T17" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="U17" t="n">
-        <v>1491.579164780145</v>
+        <v>1491.579164780144</v>
       </c>
       <c r="V17" t="n">
-        <v>1401.261308610737</v>
+        <v>1401.261308610736</v>
       </c>
       <c r="W17" t="n">
-        <v>1285.387796402989</v>
+        <v>1285.387796402988</v>
       </c>
       <c r="X17" t="n">
-        <v>1150.019073859134</v>
+        <v>1150.019073859133</v>
       </c>
       <c r="Y17" t="n">
-        <v>1003.138636369623</v>
+        <v>1003.138636369622</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>87.08646607190046</v>
+        <v>183.8571181348854</v>
       </c>
       <c r="C18" t="n">
-        <v>87.08646607190046</v>
+        <v>183.8571181348854</v>
       </c>
       <c r="D18" t="n">
-        <v>87.08646607190046</v>
+        <v>183.8571181348854</v>
       </c>
       <c r="E18" t="n">
-        <v>87.08646607190046</v>
+        <v>183.8571181348854</v>
       </c>
       <c r="F18" t="n">
-        <v>87.08646607190046</v>
+        <v>183.8571181348854</v>
       </c>
       <c r="G18" t="n">
-        <v>87.08646607190046</v>
+        <v>183.8571181348854</v>
       </c>
       <c r="H18" t="n">
-        <v>87.08646607190046</v>
+        <v>87.08646607190045</v>
       </c>
       <c r="I18" t="n">
-        <v>29.99508099538057</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J18" t="n">
         <v>120.6157572122717</v>
       </c>
       <c r="K18" t="n">
-        <v>120.6157572122717</v>
+        <v>402.0075457117349</v>
       </c>
       <c r="L18" t="n">
-        <v>491.8048845301063</v>
+        <v>566.2933322920182</v>
       </c>
       <c r="M18" t="n">
-        <v>862.9940118479408</v>
+        <v>566.2933322920182</v>
       </c>
       <c r="N18" t="n">
-        <v>862.9940118479408</v>
+        <v>566.2933322920182</v>
       </c>
       <c r="O18" t="n">
-        <v>1234.183139165775</v>
+        <v>937.4824596098526</v>
       </c>
       <c r="P18" t="n">
-        <v>1499.754049769029</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="Q18" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R18" t="n">
-        <v>1460.330797896367</v>
+        <v>1460.330797896366</v>
       </c>
       <c r="S18" t="n">
-        <v>1313.622643710194</v>
+        <v>1313.622643710193</v>
       </c>
       <c r="T18" t="n">
-        <v>1126.259366285671</v>
+        <v>1126.25936628567</v>
       </c>
       <c r="U18" t="n">
-        <v>907.7861488525803</v>
+        <v>907.7861488525793</v>
       </c>
       <c r="V18" t="n">
-        <v>679.3905263009142</v>
+        <v>679.3905263009133</v>
       </c>
       <c r="W18" t="n">
-        <v>438.0746575342242</v>
+        <v>438.0746575342233</v>
       </c>
       <c r="X18" t="n">
-        <v>240.1576694120188</v>
+        <v>240.1576694120179</v>
       </c>
       <c r="Y18" t="n">
-        <v>87.08646607190046</v>
+        <v>183.8571181348854</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>469.0581482733989</v>
+        <v>199.3109147959472</v>
       </c>
       <c r="C19" t="n">
-        <v>469.0581482733989</v>
+        <v>199.3109147959472</v>
       </c>
       <c r="D19" t="n">
-        <v>469.0581482733989</v>
+        <v>199.3109147959472</v>
       </c>
       <c r="E19" t="n">
-        <v>469.0581482733989</v>
+        <v>199.3109147959472</v>
       </c>
       <c r="F19" t="n">
-        <v>316.577493299176</v>
+        <v>46.8302598217243</v>
       </c>
       <c r="G19" t="n">
-        <v>206.5495674174564</v>
+        <v>46.8302598217243</v>
       </c>
       <c r="H19" t="n">
-        <v>206.5495674174564</v>
+        <v>46.8302598217243</v>
       </c>
       <c r="I19" t="n">
-        <v>70.61452257124263</v>
+        <v>46.8302598217243</v>
       </c>
       <c r="J19" t="n">
-        <v>29.99508099538057</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K19" t="n">
         <v>94.90588907899621</v>
@@ -5680,43 +5680,43 @@
         <v>235.5746640210047</v>
       </c>
       <c r="M19" t="n">
-        <v>395.8076110331837</v>
+        <v>395.8076110331838</v>
       </c>
       <c r="N19" t="n">
-        <v>555.4650341729186</v>
+        <v>555.4650341729188</v>
       </c>
       <c r="O19" t="n">
-        <v>692.015952423721</v>
+        <v>692.0159524237212</v>
       </c>
       <c r="P19" t="n">
-        <v>787.574676917875</v>
+        <v>787.5746769178751</v>
       </c>
       <c r="Q19" t="n">
-        <v>772.0592653978196</v>
+        <v>772.0592653978197</v>
       </c>
       <c r="R19" t="n">
-        <v>772.0592653978196</v>
+        <v>772.0592653978197</v>
       </c>
       <c r="S19" t="n">
-        <v>563.1408435329079</v>
+        <v>772.0592653978197</v>
       </c>
       <c r="T19" t="n">
-        <v>563.1408435329079</v>
+        <v>540.055027990107</v>
       </c>
       <c r="U19" t="n">
-        <v>522.6270183282751</v>
+        <v>499.5412027854743</v>
       </c>
       <c r="V19" t="n">
-        <v>508.5531318213488</v>
+        <v>238.8058983438969</v>
       </c>
       <c r="W19" t="n">
-        <v>469.0581482733989</v>
+        <v>199.3109147959472</v>
       </c>
       <c r="X19" t="n">
-        <v>469.0581482733989</v>
+        <v>199.3109147959472</v>
       </c>
       <c r="Y19" t="n">
-        <v>469.0581482733989</v>
+        <v>199.3109147959472</v>
       </c>
     </row>
     <row r="20">
@@ -5726,61 +5726,61 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>855.7565147862545</v>
+        <v>855.7565147862539</v>
       </c>
       <c r="C20" t="n">
-        <v>720.4841740537129</v>
+        <v>720.4841740537122</v>
       </c>
       <c r="D20" t="n">
-        <v>594.3216272155876</v>
+        <v>594.3216272155871</v>
       </c>
       <c r="E20" t="n">
-        <v>446.1973252563455</v>
+        <v>446.1973252563453</v>
       </c>
       <c r="F20" t="n">
-        <v>278.707552501167</v>
+        <v>278.7075525011669</v>
       </c>
       <c r="G20" t="n">
         <v>109.8779009208892</v>
       </c>
       <c r="H20" t="n">
-        <v>29.99508099538057</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I20" t="n">
-        <v>29.99508099538057</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J20" t="n">
         <v>152.9789828377824</v>
       </c>
       <c r="K20" t="n">
-        <v>469.5331892888865</v>
+        <v>469.5331892888867</v>
       </c>
       <c r="L20" t="n">
-        <v>840.7223166067211</v>
+        <v>654.7204880487627</v>
       </c>
       <c r="M20" t="n">
-        <v>840.7223166067211</v>
+        <v>654.7204880487627</v>
       </c>
       <c r="N20" t="n">
-        <v>1128.564922451194</v>
+        <v>654.7204880487627</v>
       </c>
       <c r="O20" t="n">
-        <v>1499.754049769029</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="P20" t="n">
-        <v>1499.754049769029</v>
+        <v>1340.450796129693</v>
       </c>
       <c r="Q20" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R20" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S20" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="T20" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="U20" t="n">
         <v>1491.579164780144</v>
@@ -5789,7 +5789,7 @@
         <v>1401.261308610736</v>
       </c>
       <c r="W20" t="n">
-        <v>1285.387796402989</v>
+        <v>1285.387796402988</v>
       </c>
       <c r="X20" t="n">
         <v>1150.019073859133</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>797.7511442880004</v>
+        <v>87.08646607190045</v>
       </c>
       <c r="C21" t="n">
-        <v>636.0474715289552</v>
+        <v>87.08646607190045</v>
       </c>
       <c r="D21" t="n">
-        <v>497.2088345191672</v>
+        <v>87.08646607190045</v>
       </c>
       <c r="E21" t="n">
-        <v>350.1808245760384</v>
+        <v>87.08646607190045</v>
       </c>
       <c r="F21" t="n">
-        <v>215.4870265259128</v>
+        <v>87.08646607190045</v>
       </c>
       <c r="G21" t="n">
-        <v>87.08646607190046</v>
+        <v>87.08646607190045</v>
       </c>
       <c r="H21" t="n">
-        <v>87.08646607190046</v>
+        <v>87.08646607190045</v>
       </c>
       <c r="I21" t="n">
-        <v>29.99508099538057</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J21" t="n">
-        <v>29.99508099538057</v>
+        <v>120.6157572122717</v>
       </c>
       <c r="K21" t="n">
-        <v>29.99508099538057</v>
+        <v>402.0075457117349</v>
       </c>
       <c r="L21" t="n">
-        <v>386.1866678155248</v>
+        <v>566.2933322920182</v>
       </c>
       <c r="M21" t="n">
-        <v>757.3757951333594</v>
+        <v>566.2933322920182</v>
       </c>
       <c r="N21" t="n">
-        <v>1128.564922451194</v>
+        <v>566.2933322920182</v>
       </c>
       <c r="O21" t="n">
-        <v>1499.754049769029</v>
+        <v>937.4824596098526</v>
       </c>
       <c r="P21" t="n">
-        <v>1499.754049769029</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="Q21" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R21" t="n">
-        <v>1460.330797896367</v>
+        <v>1460.330797896366</v>
       </c>
       <c r="S21" t="n">
-        <v>1460.330797896367</v>
+        <v>1313.622643710193</v>
       </c>
       <c r="T21" t="n">
-        <v>1460.330797896367</v>
+        <v>1126.25936628567</v>
       </c>
       <c r="U21" t="n">
-        <v>1460.330797896367</v>
+        <v>907.7861488525793</v>
       </c>
       <c r="V21" t="n">
-        <v>1460.330797896367</v>
+        <v>679.3905263009133</v>
       </c>
       <c r="W21" t="n">
-        <v>1347.608901541888</v>
+        <v>438.0746575342233</v>
       </c>
       <c r="X21" t="n">
-        <v>1149.691913419682</v>
+        <v>240.1576694120179</v>
       </c>
       <c r="Y21" t="n">
-        <v>957.1705870692613</v>
+        <v>87.08646607190045</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>643.9838326156083</v>
+        <v>62.15114241267694</v>
       </c>
       <c r="C22" t="n">
-        <v>643.9838326156083</v>
+        <v>62.15114241267694</v>
       </c>
       <c r="D22" t="n">
-        <v>643.9838326156083</v>
+        <v>62.15114241267694</v>
       </c>
       <c r="E22" t="n">
-        <v>643.9838326156083</v>
+        <v>62.15114241267694</v>
       </c>
       <c r="F22" t="n">
-        <v>491.5031776413854</v>
+        <v>62.15114241267694</v>
       </c>
       <c r="G22" t="n">
-        <v>322.8583624888672</v>
+        <v>62.15114241267694</v>
       </c>
       <c r="H22" t="n">
-        <v>165.9301258415943</v>
+        <v>62.15114241267694</v>
       </c>
       <c r="I22" t="n">
-        <v>29.99508099538057</v>
+        <v>62.15114241267694</v>
       </c>
       <c r="J22" t="n">
-        <v>29.99508099538057</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K22" t="n">
         <v>94.90588907899621</v>
@@ -5917,43 +5917,43 @@
         <v>235.5746640210047</v>
       </c>
       <c r="M22" t="n">
-        <v>395.8076110331837</v>
+        <v>395.8076110331838</v>
       </c>
       <c r="N22" t="n">
-        <v>555.4650341729186</v>
+        <v>555.4650341729188</v>
       </c>
       <c r="O22" t="n">
-        <v>692.015952423721</v>
+        <v>692.0159524237212</v>
       </c>
       <c r="P22" t="n">
-        <v>787.574676917875</v>
+        <v>787.5746769178751</v>
       </c>
       <c r="Q22" t="n">
-        <v>772.0592653978196</v>
+        <v>772.0592653978197</v>
       </c>
       <c r="R22" t="n">
-        <v>772.0592653978196</v>
+        <v>634.8994930145494</v>
       </c>
       <c r="S22" t="n">
-        <v>738.066527875117</v>
+        <v>634.8994930145494</v>
       </c>
       <c r="T22" t="n">
-        <v>738.066527875117</v>
+        <v>402.8952556068367</v>
       </c>
       <c r="U22" t="n">
-        <v>697.5527026704843</v>
+        <v>115.7200124675529</v>
       </c>
       <c r="V22" t="n">
-        <v>683.4788161635581</v>
+        <v>101.6461259606266</v>
       </c>
       <c r="W22" t="n">
-        <v>643.9838326156083</v>
+        <v>62.15114241267694</v>
       </c>
       <c r="X22" t="n">
-        <v>643.9838326156083</v>
+        <v>62.15114241267694</v>
       </c>
       <c r="Y22" t="n">
-        <v>643.9838326156083</v>
+        <v>62.15114241267694</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5963,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>855.7565147862538</v>
+        <v>855.7565147862541</v>
       </c>
       <c r="C23" t="n">
-        <v>720.4841740537122</v>
+        <v>720.4841740537126</v>
       </c>
       <c r="D23" t="n">
-        <v>594.3216272155869</v>
+        <v>594.3216272155875</v>
       </c>
       <c r="E23" t="n">
-        <v>446.1973252563448</v>
+        <v>446.1973252563455</v>
       </c>
       <c r="F23" t="n">
-        <v>278.7075525011667</v>
+        <v>278.707552501167</v>
       </c>
       <c r="G23" t="n">
         <v>109.8779009208892</v>
       </c>
       <c r="H23" t="n">
-        <v>29.99508099538057</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I23" t="n">
-        <v>29.99508099538057</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J23" t="n">
         <v>152.9789828377824</v>
       </c>
       <c r="K23" t="n">
-        <v>469.5331892888865</v>
+        <v>469.5331892888867</v>
       </c>
       <c r="L23" t="n">
-        <v>469.5331892888865</v>
+        <v>654.7204880487627</v>
       </c>
       <c r="M23" t="n">
-        <v>654.7204880487633</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="N23" t="n">
-        <v>654.7204880487633</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="O23" t="n">
-        <v>1025.909615366598</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="P23" t="n">
-        <v>1340.450796129694</v>
+        <v>1340.450796129693</v>
       </c>
       <c r="Q23" t="n">
         <v>1499.754049769028</v>
@@ -6026,7 +6026,7 @@
         <v>1401.261308610736</v>
       </c>
       <c r="W23" t="n">
-        <v>1285.387796402989</v>
+        <v>1285.387796402988</v>
       </c>
       <c r="X23" t="n">
         <v>1150.019073859133</v>
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>797.7511442880004</v>
+        <v>766.1212358969731</v>
       </c>
       <c r="C24" t="n">
-        <v>636.0474715289552</v>
+        <v>604.4175631379278</v>
       </c>
       <c r="D24" t="n">
-        <v>497.2088345191672</v>
+        <v>465.5789261281398</v>
       </c>
       <c r="E24" t="n">
-        <v>350.1808245760384</v>
+        <v>318.550916185011</v>
       </c>
       <c r="F24" t="n">
-        <v>215.4870265259128</v>
+        <v>183.8571181348854</v>
       </c>
       <c r="G24" t="n">
-        <v>87.08646607190046</v>
+        <v>183.8571181348854</v>
       </c>
       <c r="H24" t="n">
-        <v>87.08646607190046</v>
+        <v>87.08646607190045</v>
       </c>
       <c r="I24" t="n">
-        <v>29.99508099538057</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J24" t="n">
         <v>120.6157572122717</v>
@@ -6072,16 +6072,16 @@
         <v>402.0075457117349</v>
       </c>
       <c r="L24" t="n">
-        <v>773.1966730295694</v>
+        <v>558.5760106698538</v>
       </c>
       <c r="M24" t="n">
-        <v>773.1966730295694</v>
+        <v>929.7651379876881</v>
       </c>
       <c r="N24" t="n">
-        <v>773.1966730295694</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="O24" t="n">
-        <v>937.4824596098533</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="P24" t="n">
         <v>1300.954265305523</v>
@@ -6090,28 +6090,28 @@
         <v>1499.754049769028</v>
       </c>
       <c r="R24" t="n">
-        <v>1460.330797896367</v>
+        <v>1460.330797896366</v>
       </c>
       <c r="S24" t="n">
-        <v>1313.622643710194</v>
+        <v>1331.377173535848</v>
       </c>
       <c r="T24" t="n">
-        <v>1126.259366285671</v>
+        <v>1144.013896111325</v>
       </c>
       <c r="U24" t="n">
-        <v>957.1705870692613</v>
+        <v>925.5406786782339</v>
       </c>
       <c r="V24" t="n">
-        <v>957.1705870692613</v>
+        <v>925.5406786782339</v>
       </c>
       <c r="W24" t="n">
-        <v>957.1705870692613</v>
+        <v>925.5406786782339</v>
       </c>
       <c r="X24" t="n">
-        <v>957.1705870692613</v>
+        <v>925.5406786782339</v>
       </c>
       <c r="Y24" t="n">
-        <v>957.1705870692613</v>
+        <v>925.5406786782339</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>355.5681327951717</v>
+        <v>223.0951775454655</v>
       </c>
       <c r="C25" t="n">
-        <v>355.5681327951717</v>
+        <v>223.0951775454655</v>
       </c>
       <c r="D25" t="n">
-        <v>355.5681327951717</v>
+        <v>223.0951775454655</v>
       </c>
       <c r="E25" t="n">
-        <v>355.5681327951717</v>
+        <v>223.0951775454655</v>
       </c>
       <c r="F25" t="n">
-        <v>355.5681327951717</v>
+        <v>70.61452257124262</v>
       </c>
       <c r="G25" t="n">
-        <v>186.9233176426535</v>
+        <v>70.61452257124262</v>
       </c>
       <c r="H25" t="n">
-        <v>29.99508099538057</v>
+        <v>70.61452257124262</v>
       </c>
       <c r="I25" t="n">
-        <v>29.99508099538057</v>
+        <v>70.61452257124262</v>
       </c>
       <c r="J25" t="n">
-        <v>29.99508099538057</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K25" t="n">
         <v>94.90588907899621</v>
@@ -6154,43 +6154,43 @@
         <v>235.5746640210047</v>
       </c>
       <c r="M25" t="n">
-        <v>395.8076110331837</v>
+        <v>395.8076110331838</v>
       </c>
       <c r="N25" t="n">
-        <v>555.4650341729186</v>
+        <v>555.4650341729188</v>
       </c>
       <c r="O25" t="n">
-        <v>692.015952423721</v>
+        <v>692.0159524237212</v>
       </c>
       <c r="P25" t="n">
-        <v>787.574676917875</v>
+        <v>787.5746769178751</v>
       </c>
       <c r="Q25" t="n">
-        <v>787.574676917875</v>
+        <v>772.0592653978197</v>
       </c>
       <c r="R25" t="n">
-        <v>650.4149045346047</v>
+        <v>772.0592653978197</v>
       </c>
       <c r="S25" t="n">
-        <v>449.6508280546805</v>
+        <v>772.0592653978197</v>
       </c>
       <c r="T25" t="n">
-        <v>449.6508280546805</v>
+        <v>540.055027990107</v>
       </c>
       <c r="U25" t="n">
-        <v>409.1370028500477</v>
+        <v>499.5412027854743</v>
       </c>
       <c r="V25" t="n">
-        <v>395.0631163431215</v>
+        <v>485.4673162785481</v>
       </c>
       <c r="W25" t="n">
-        <v>355.5681327951717</v>
+        <v>445.9723327305984</v>
       </c>
       <c r="X25" t="n">
-        <v>355.5681327951717</v>
+        <v>445.9723327305984</v>
       </c>
       <c r="Y25" t="n">
-        <v>355.5681327951717</v>
+        <v>406.6505462298453</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1810.171707740055</v>
+        <v>1810.171707740056</v>
       </c>
       <c r="C26" t="n">
-        <v>1530.378656368019</v>
+        <v>1530.37865636802</v>
       </c>
       <c r="D26" t="n">
-        <v>1259.695398890399</v>
+        <v>1259.6953988904</v>
       </c>
       <c r="E26" t="n">
-        <v>967.0503862916619</v>
+        <v>967.0503862916628</v>
       </c>
       <c r="F26" t="n">
-        <v>655.0399028969886</v>
+        <v>655.0399028969895</v>
       </c>
       <c r="G26" t="n">
-        <v>341.689540677216</v>
+        <v>341.6895406772169</v>
       </c>
       <c r="H26" t="n">
         <v>117.2860101122129</v>
@@ -6227,22 +6227,22 @@
         <v>293.3310115116683</v>
       </c>
       <c r="K26" t="n">
-        <v>709.9933251827551</v>
+        <v>709.9933251827553</v>
       </c>
       <c r="L26" t="n">
-        <v>1152.67681682219</v>
+        <v>1252.784924042173</v>
       </c>
       <c r="M26" t="n">
-        <v>1696.926289792199</v>
+        <v>1851.613370049065</v>
       </c>
       <c r="N26" t="n">
-        <v>2282.553723882486</v>
+        <v>2437.240804139351</v>
       </c>
       <c r="O26" t="n">
-        <v>2788.880974437192</v>
+        <v>2943.568054694058</v>
       </c>
       <c r="P26" t="n">
-        <v>3203.530262420271</v>
+        <v>3258.109235457154</v>
       </c>
       <c r="Q26" t="n">
         <v>3462.941623279588</v>
@@ -6260,16 +6260,16 @@
         <v>3168.597910931419</v>
       </c>
       <c r="V26" t="n">
-        <v>2933.759344122516</v>
+        <v>2933.759344122517</v>
       </c>
       <c r="W26" t="n">
-        <v>2673.365121275273</v>
+        <v>2673.365121275274</v>
       </c>
       <c r="X26" t="n">
-        <v>2393.475688091923</v>
+        <v>2393.475688091924</v>
       </c>
       <c r="Y26" t="n">
-        <v>2102.074539962918</v>
+        <v>2102.074539962919</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>224.1010395887885</v>
       </c>
       <c r="H27" t="n">
-        <v>127.3303875258036</v>
+        <v>127.3303875258035</v>
       </c>
       <c r="I27" t="n">
         <v>70.23900244928366</v>
       </c>
       <c r="J27" t="n">
-        <v>70.23900244928366</v>
+        <v>160.8596786661748</v>
       </c>
       <c r="K27" t="n">
-        <v>117.2170367589568</v>
+        <v>442.251467165638</v>
       </c>
       <c r="L27" t="n">
-        <v>552.8264986597617</v>
+        <v>717.4985198919264</v>
       </c>
       <c r="M27" t="n">
-        <v>1119.298709225476</v>
+        <v>1283.97073045764</v>
       </c>
       <c r="N27" t="n">
-        <v>1714.158656621462</v>
+        <v>1878.830677853627</v>
       </c>
       <c r="O27" t="n">
-        <v>2182.83106159791</v>
+        <v>2347.503082830075</v>
       </c>
       <c r="P27" t="n">
-        <v>2546.30286729358</v>
+        <v>2347.503082830075</v>
       </c>
       <c r="Q27" t="n">
         <v>2546.30286729358</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>443.9396799526546</v>
+        <v>443.939679952655</v>
       </c>
       <c r="C28" t="n">
-        <v>376.4644177094912</v>
+        <v>376.4644177094917</v>
       </c>
       <c r="D28" t="n">
-        <v>325.5332318324103</v>
+        <v>325.5332318324108</v>
       </c>
       <c r="E28" t="n">
-        <v>275.6649248888855</v>
+        <v>275.664924888886</v>
       </c>
       <c r="F28" t="n">
-        <v>225.3249772098189</v>
+        <v>225.3249772098195</v>
       </c>
       <c r="G28" t="n">
-        <v>158.8208693524571</v>
+        <v>158.8208693524576</v>
       </c>
       <c r="H28" t="n">
-        <v>104.0333400003405</v>
+        <v>104.033340000341</v>
       </c>
       <c r="I28" t="n">
         <v>70.23900244928366</v>
@@ -6388,10 +6388,10 @@
         <v>295.5549102843624</v>
       </c>
       <c r="L28" t="n">
-        <v>536.3317924463536</v>
+        <v>536.3317924463537</v>
       </c>
       <c r="M28" t="n">
-        <v>796.6728466785153</v>
+        <v>796.6728466785155</v>
       </c>
       <c r="N28" t="n">
         <v>1056.438377038233</v>
@@ -6403,10 +6403,10 @@
         <v>1488.764234223155</v>
       </c>
       <c r="Q28" t="n">
-        <v>1573.665686612331</v>
+        <v>1573.665686612332</v>
       </c>
       <c r="R28" t="n">
-        <v>1538.646621524217</v>
+        <v>1538.646621524218</v>
       </c>
       <c r="S28" t="n">
         <v>1431.868906954462</v>
@@ -6415,19 +6415,19 @@
         <v>1302.005376841906</v>
       </c>
       <c r="U28" t="n">
-        <v>1116.970840997778</v>
+        <v>1116.970840997779</v>
       </c>
       <c r="V28" t="n">
-        <v>958.3762438513571</v>
+        <v>958.3762438513576</v>
       </c>
       <c r="W28" t="n">
-        <v>774.3605496639125</v>
+        <v>774.3605496639129</v>
       </c>
       <c r="X28" t="n">
-        <v>645.2487928544446</v>
+        <v>645.248792854445</v>
       </c>
       <c r="Y28" t="n">
-        <v>525.354341341878</v>
+        <v>525.3543413418785</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1810.171707740056</v>
+        <v>1810.171707740055</v>
       </c>
       <c r="C29" t="n">
         <v>1530.378656368019</v>
@@ -6446,10 +6446,10 @@
         <v>1259.695398890399</v>
       </c>
       <c r="E29" t="n">
-        <v>967.0503862916626</v>
+        <v>967.0503862916621</v>
       </c>
       <c r="F29" t="n">
-        <v>655.0399028969891</v>
+        <v>655.039902896989</v>
       </c>
       <c r="G29" t="n">
         <v>341.6895406772164</v>
@@ -6461,19 +6461,19 @@
         <v>70.23900244928366</v>
       </c>
       <c r="J29" t="n">
-        <v>293.3310115116683</v>
+        <v>238.7520384747858</v>
       </c>
       <c r="K29" t="n">
-        <v>709.9933251827551</v>
+        <v>555.3062449258899</v>
       </c>
       <c r="L29" t="n">
-        <v>1252.784924042173</v>
+        <v>1098.097843785308</v>
       </c>
       <c r="M29" t="n">
-        <v>1851.613370049064</v>
+        <v>1696.926289792199</v>
       </c>
       <c r="N29" t="n">
-        <v>2337.132696919368</v>
+        <v>2282.553723882486</v>
       </c>
       <c r="O29" t="n">
         <v>2788.880974437192</v>
@@ -6500,13 +6500,13 @@
         <v>2933.759344122517</v>
       </c>
       <c r="W29" t="n">
-        <v>2673.365121275275</v>
+        <v>2673.365121275274</v>
       </c>
       <c r="X29" t="n">
         <v>2393.475688091924</v>
       </c>
       <c r="Y29" t="n">
-        <v>2102.074539962919</v>
+        <v>2102.074539962918</v>
       </c>
     </row>
     <row r="30">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>443.939679952655</v>
+        <v>443.9396799526551</v>
       </c>
       <c r="C31" t="n">
-        <v>376.4644177094916</v>
+        <v>376.4644177094918</v>
       </c>
       <c r="D31" t="n">
-        <v>325.5332318324107</v>
+        <v>325.5332318324109</v>
       </c>
       <c r="E31" t="n">
-        <v>275.6649248888859</v>
+        <v>275.664924888886</v>
       </c>
       <c r="F31" t="n">
-        <v>225.3249772098194</v>
+        <v>225.3249772098195</v>
       </c>
       <c r="G31" t="n">
-        <v>158.8208693524575</v>
+        <v>158.8208693524576</v>
       </c>
       <c r="H31" t="n">
         <v>104.033340000341</v>
@@ -6628,43 +6628,43 @@
         <v>536.3317924463536</v>
       </c>
       <c r="M31" t="n">
-        <v>796.6728466785154</v>
+        <v>796.6728466785153</v>
       </c>
       <c r="N31" t="n">
         <v>1056.438377038233</v>
       </c>
       <c r="O31" t="n">
-        <v>1293.097402509018</v>
+        <v>1293.097402509019</v>
       </c>
       <c r="P31" t="n">
         <v>1488.764234223155</v>
       </c>
       <c r="Q31" t="n">
-        <v>1573.665686612331</v>
+        <v>1573.665686612332</v>
       </c>
       <c r="R31" t="n">
-        <v>1538.646621524217</v>
+        <v>1538.646621524218</v>
       </c>
       <c r="S31" t="n">
-        <v>1431.868906954462</v>
+        <v>1431.868906954463</v>
       </c>
       <c r="T31" t="n">
         <v>1302.005376841906</v>
       </c>
       <c r="U31" t="n">
-        <v>1116.970840997778</v>
+        <v>1116.970840997779</v>
       </c>
       <c r="V31" t="n">
-        <v>958.3762438513572</v>
+        <v>958.3762438513576</v>
       </c>
       <c r="W31" t="n">
-        <v>774.3605496639127</v>
+        <v>774.360549663913</v>
       </c>
       <c r="X31" t="n">
-        <v>645.2487928544449</v>
+        <v>645.2487928544451</v>
       </c>
       <c r="Y31" t="n">
-        <v>525.3543413418784</v>
+        <v>525.3543413418786</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1810.171707740056</v>
+        <v>1810.171707740055</v>
       </c>
       <c r="C32" t="n">
         <v>1530.378656368019</v>
@@ -6683,22 +6683,22 @@
         <v>1259.695398890399</v>
       </c>
       <c r="E32" t="n">
-        <v>967.0503862916626</v>
+        <v>967.0503862916623</v>
       </c>
       <c r="F32" t="n">
-        <v>655.0399028969892</v>
+        <v>655.039902896989</v>
       </c>
       <c r="G32" t="n">
-        <v>341.6895406772167</v>
+        <v>341.6895406772164</v>
       </c>
       <c r="H32" t="n">
         <v>117.2860101122129</v>
       </c>
       <c r="I32" t="n">
-        <v>70.23900244928367</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J32" t="n">
-        <v>293.3310115116683</v>
+        <v>293.3310115116682</v>
       </c>
       <c r="K32" t="n">
         <v>709.9933251827551</v>
@@ -6710,19 +6710,19 @@
         <v>1851.613370049064</v>
       </c>
       <c r="N32" t="n">
-        <v>2437.240804139351</v>
+        <v>2337.132696919368</v>
       </c>
       <c r="O32" t="n">
-        <v>2843.459947474074</v>
+        <v>2788.880974437192</v>
       </c>
       <c r="P32" t="n">
-        <v>3258.109235457153</v>
+        <v>3203.530262420271</v>
       </c>
       <c r="Q32" t="n">
         <v>3462.941623279588</v>
       </c>
       <c r="R32" t="n">
-        <v>3511.950122464184</v>
+        <v>3511.950122464183</v>
       </c>
       <c r="S32" t="n">
         <v>3440.828701230941</v>
@@ -6743,7 +6743,7 @@
         <v>2393.475688091924</v>
       </c>
       <c r="Y32" t="n">
-        <v>2102.074539962919</v>
+        <v>2102.074539962918</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>127.3303875258036</v>
       </c>
       <c r="I33" t="n">
-        <v>70.23900244928367</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J33" t="n">
-        <v>70.23900244928367</v>
+        <v>160.8596786661748</v>
       </c>
       <c r="K33" t="n">
-        <v>351.6307909487468</v>
+        <v>442.251467165638</v>
       </c>
       <c r="L33" t="n">
-        <v>787.2402528495518</v>
+        <v>877.8609290664428</v>
       </c>
       <c r="M33" t="n">
-        <v>1353.712463415266</v>
+        <v>1444.333139632157</v>
       </c>
       <c r="N33" t="n">
-        <v>1515.358872157957</v>
+        <v>1714.158656621462</v>
       </c>
       <c r="O33" t="n">
-        <v>1984.031277134405</v>
+        <v>2182.83106159791</v>
       </c>
       <c r="P33" t="n">
-        <v>2347.503082830075</v>
+        <v>2546.30286729358</v>
       </c>
       <c r="Q33" t="n">
         <v>2546.30286729358</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>443.9396799526546</v>
+        <v>443.9396799526551</v>
       </c>
       <c r="C34" t="n">
-        <v>376.4644177094913</v>
+        <v>376.4644177094917</v>
       </c>
       <c r="D34" t="n">
-        <v>325.5332318324104</v>
+        <v>325.5332318324108</v>
       </c>
       <c r="E34" t="n">
-        <v>275.6649248888855</v>
+        <v>275.664924888886</v>
       </c>
       <c r="F34" t="n">
-        <v>225.324977209819</v>
+        <v>225.3249772098195</v>
       </c>
       <c r="G34" t="n">
-        <v>158.8208693524571</v>
+        <v>158.8208693524576</v>
       </c>
       <c r="H34" t="n">
-        <v>104.0333400003405</v>
+        <v>104.0333400003411</v>
       </c>
       <c r="I34" t="n">
-        <v>70.23900244928367</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J34" t="n">
-        <v>130.535994980764</v>
+        <v>130.5359949807639</v>
       </c>
       <c r="K34" t="n">
         <v>295.5549102843623</v>
@@ -6880,28 +6880,28 @@
         <v>1573.665686612331</v>
       </c>
       <c r="R34" t="n">
-        <v>1538.646621524217</v>
+        <v>1538.646621524218</v>
       </c>
       <c r="S34" t="n">
-        <v>1431.868906954462</v>
+        <v>1431.868906954463</v>
       </c>
       <c r="T34" t="n">
         <v>1302.005376841906</v>
       </c>
       <c r="U34" t="n">
-        <v>1116.970840997778</v>
+        <v>1116.970840997779</v>
       </c>
       <c r="V34" t="n">
-        <v>958.3762438513571</v>
+        <v>958.3762438513576</v>
       </c>
       <c r="W34" t="n">
-        <v>774.3605496639126</v>
+        <v>774.360549663913</v>
       </c>
       <c r="X34" t="n">
-        <v>645.2487928544447</v>
+        <v>645.2487928544451</v>
       </c>
       <c r="Y34" t="n">
-        <v>525.3543413418781</v>
+        <v>525.3543413418786</v>
       </c>
     </row>
     <row r="35">
@@ -6911,58 +6911,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1315.115623597502</v>
+        <v>1315.115623597501</v>
       </c>
       <c r="C35" t="n">
         <v>1106.443993458708</v>
       </c>
       <c r="D35" t="n">
-        <v>906.8821572143302</v>
+        <v>906.8821572143299</v>
       </c>
       <c r="E35" t="n">
-        <v>685.3585658488358</v>
+        <v>685.3585658488355</v>
       </c>
       <c r="F35" t="n">
-        <v>444.469503687405</v>
+        <v>444.4695036874046</v>
       </c>
       <c r="G35" t="n">
         <v>202.2405627008748</v>
       </c>
       <c r="H35" t="n">
-        <v>48.95845336911377</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="I35" t="n">
-        <v>48.95845336911377</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="J35" t="n">
         <v>171.9423552115156</v>
       </c>
       <c r="K35" t="n">
-        <v>455.4771141849827</v>
+        <v>488.4965616626197</v>
       </c>
       <c r="L35" t="n">
-        <v>898.1606058244179</v>
+        <v>931.1800533020548</v>
       </c>
       <c r="M35" t="n">
-        <v>1396.880944611326</v>
+        <v>1429.900392088963</v>
       </c>
       <c r="N35" t="n">
-        <v>1882.400271481631</v>
+        <v>1567.859090718535</v>
       </c>
       <c r="O35" t="n">
-        <v>2288.619414816354</v>
+        <v>1974.078234053258</v>
       </c>
       <c r="P35" t="n">
         <v>2288.619414816354</v>
       </c>
       <c r="Q35" t="n">
-        <v>2447.922668455688</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="R35" t="n">
-        <v>2447.922668455688</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="S35" t="n">
-        <v>2447.922668455688</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="T35" t="n">
         <v>2399.508895017789</v>
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>836.3855189669962</v>
+        <v>913.4851687247186</v>
       </c>
       <c r="C36" t="n">
-        <v>674.6818462079509</v>
+        <v>751.7814959656733</v>
       </c>
       <c r="D36" t="n">
-        <v>535.843209198163</v>
+        <v>612.9428589558854</v>
       </c>
       <c r="E36" t="n">
-        <v>388.8151992550342</v>
+        <v>465.9148490127566</v>
       </c>
       <c r="F36" t="n">
-        <v>254.1214012049086</v>
+        <v>331.2210509626309</v>
       </c>
       <c r="G36" t="n">
-        <v>125.7208407508963</v>
+        <v>202.8204905086186</v>
       </c>
       <c r="H36" t="n">
         <v>106.0498384456337</v>
       </c>
       <c r="I36" t="n">
-        <v>48.95845336911377</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="J36" t="n">
         <v>139.5791295860049</v>
@@ -7020,46 +7020,46 @@
         <v>420.9709180854681</v>
       </c>
       <c r="L36" t="n">
-        <v>856.580379986273</v>
+        <v>454.4462998218703</v>
       </c>
       <c r="M36" t="n">
-        <v>1416.978673320065</v>
+        <v>1020.918510387584</v>
       </c>
       <c r="N36" t="n">
-        <v>1416.978673320065</v>
+        <v>1615.778457783571</v>
       </c>
       <c r="O36" t="n">
-        <v>1885.651078296513</v>
+        <v>2084.450862760019</v>
       </c>
       <c r="P36" t="n">
-        <v>2249.122883992183</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="Q36" t="n">
-        <v>2447.922668455688</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="R36" t="n">
-        <v>2408.499416583027</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="S36" t="n">
-        <v>2261.791262396854</v>
+        <v>2301.214514269516</v>
       </c>
       <c r="T36" t="n">
-        <v>2074.427984972331</v>
+        <v>2113.851236844993</v>
       </c>
       <c r="U36" t="n">
-        <v>1855.95476753924</v>
+        <v>1933.054417296962</v>
       </c>
       <c r="V36" t="n">
-        <v>1627.559144987574</v>
+        <v>1704.658794745296</v>
       </c>
       <c r="W36" t="n">
-        <v>1386.243276220884</v>
+        <v>1463.342925978606</v>
       </c>
       <c r="X36" t="n">
-        <v>1188.326288098678</v>
+        <v>1265.425937856401</v>
       </c>
       <c r="Y36" t="n">
-        <v>995.8049617482571</v>
+        <v>1072.90461150598</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>259.1938644832956</v>
+        <v>92.02493753753019</v>
       </c>
       <c r="C37" t="n">
-        <v>89.57789494497584</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="D37" t="n">
-        <v>89.57789494497584</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="E37" t="n">
-        <v>89.57789494497584</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="F37" t="n">
-        <v>89.57789494497584</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="G37" t="n">
-        <v>89.57789494497584</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="H37" t="n">
-        <v>89.57789494497584</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="I37" t="n">
-        <v>89.57789494497584</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="J37" t="n">
-        <v>48.95845336911377</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="K37" t="n">
         <v>113.8692614527294</v>
       </c>
       <c r="L37" t="n">
-        <v>254.5380363947379</v>
+        <v>254.5380363947378</v>
       </c>
       <c r="M37" t="n">
         <v>414.7709834069169</v>
@@ -7120,25 +7120,25 @@
         <v>791.0226377715527</v>
       </c>
       <c r="S37" t="n">
-        <v>755.3663444350398</v>
+        <v>755.3663444350397</v>
       </c>
       <c r="T37" t="n">
-        <v>696.6242355557258</v>
+        <v>696.6242355557256</v>
       </c>
       <c r="U37" t="n">
-        <v>582.7111209448408</v>
+        <v>582.7111209448404</v>
       </c>
       <c r="V37" t="n">
-        <v>495.2379450316622</v>
+        <v>495.2379450316618</v>
       </c>
       <c r="W37" t="n">
-        <v>382.3436720774601</v>
+        <v>209.0815435490609</v>
       </c>
       <c r="X37" t="n">
-        <v>324.3533365012347</v>
+        <v>151.0912079728354</v>
       </c>
       <c r="Y37" t="n">
-        <v>275.5803062219105</v>
+        <v>102.3181776935113</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1106.443993458708</v>
       </c>
       <c r="D38" t="n">
-        <v>906.8821572143302</v>
+        <v>906.8821572143299</v>
       </c>
       <c r="E38" t="n">
-        <v>685.3585658488355</v>
+        <v>685.3585658488356</v>
       </c>
       <c r="F38" t="n">
         <v>444.4695036874048</v>
@@ -7172,25 +7172,25 @@
         <v>48.95845336911378</v>
       </c>
       <c r="J38" t="n">
-        <v>48.95845336911378</v>
+        <v>171.9423552115156</v>
       </c>
       <c r="K38" t="n">
-        <v>140.9359334218869</v>
+        <v>488.4965616626197</v>
       </c>
       <c r="L38" t="n">
-        <v>583.6194250613221</v>
+        <v>931.1800533020548</v>
       </c>
       <c r="M38" t="n">
-        <v>1082.339763848231</v>
+        <v>1429.900392088963</v>
       </c>
       <c r="N38" t="n">
-        <v>1567.859090718535</v>
+        <v>1727.162344357869</v>
       </c>
       <c r="O38" t="n">
-        <v>1974.078234053258</v>
+        <v>2133.381487692593</v>
       </c>
       <c r="P38" t="n">
-        <v>2288.619414816354</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="Q38" t="n">
         <v>2447.922668455689</v>
@@ -7202,7 +7202,7 @@
         <v>2447.922668455689</v>
       </c>
       <c r="T38" t="n">
-        <v>2399.50889501779</v>
+        <v>2399.508895017789</v>
       </c>
       <c r="U38" t="n">
         <v>2317.934720622653</v>
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>913.4851687247186</v>
+        <v>836.3855189669966</v>
       </c>
       <c r="C39" t="n">
-        <v>751.7814959656733</v>
+        <v>674.6818462079514</v>
       </c>
       <c r="D39" t="n">
-        <v>612.9428589558854</v>
+        <v>535.8432091981634</v>
       </c>
       <c r="E39" t="n">
-        <v>465.9148490127566</v>
+        <v>388.8151992550347</v>
       </c>
       <c r="F39" t="n">
-        <v>331.2210509626309</v>
+        <v>254.121401204909</v>
       </c>
       <c r="G39" t="n">
-        <v>202.8204905086186</v>
+        <v>145.7291054320987</v>
       </c>
       <c r="H39" t="n">
-        <v>106.0498384456337</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="I39" t="n">
         <v>48.95845336911378</v>
       </c>
       <c r="J39" t="n">
-        <v>48.95845336911378</v>
+        <v>139.5791295860049</v>
       </c>
       <c r="K39" t="n">
-        <v>330.350241868577</v>
+        <v>420.9709180854681</v>
       </c>
       <c r="L39" t="n">
-        <v>765.9597037693818</v>
+        <v>856.5803799862729</v>
       </c>
       <c r="M39" t="n">
-        <v>1332.431914335096</v>
+        <v>1423.052590551987</v>
       </c>
       <c r="N39" t="n">
-        <v>1780.450479015735</v>
+        <v>1423.052590551987</v>
       </c>
       <c r="O39" t="n">
-        <v>2249.122883992184</v>
+        <v>1885.651078296514</v>
       </c>
       <c r="P39" t="n">
         <v>2249.122883992184</v>
@@ -7275,28 +7275,28 @@
         <v>2447.922668455689</v>
       </c>
       <c r="R39" t="n">
-        <v>2447.922668455689</v>
+        <v>2408.499416583027</v>
       </c>
       <c r="S39" t="n">
-        <v>2338.890912154576</v>
+        <v>2261.791262396854</v>
       </c>
       <c r="T39" t="n">
-        <v>2151.527634730053</v>
+        <v>2074.427984972331</v>
       </c>
       <c r="U39" t="n">
-        <v>1933.054417296962</v>
+        <v>1855.95476753924</v>
       </c>
       <c r="V39" t="n">
-        <v>1704.658794745296</v>
+        <v>1627.559144987574</v>
       </c>
       <c r="W39" t="n">
-        <v>1463.342925978606</v>
+        <v>1386.243276220884</v>
       </c>
       <c r="X39" t="n">
-        <v>1265.425937856401</v>
+        <v>1188.326288098679</v>
       </c>
       <c r="Y39" t="n">
-        <v>1072.90461150598</v>
+        <v>995.8049617482576</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.57789494497584</v>
+        <v>265.2870660659294</v>
       </c>
       <c r="C40" t="n">
-        <v>89.57789494497584</v>
+        <v>265.2870660659294</v>
       </c>
       <c r="D40" t="n">
-        <v>89.57789494497584</v>
+        <v>265.2870660659294</v>
       </c>
       <c r="E40" t="n">
-        <v>89.57789494497584</v>
+        <v>265.2870660659294</v>
       </c>
       <c r="F40" t="n">
-        <v>89.57789494497584</v>
+        <v>112.8064110917065</v>
       </c>
       <c r="G40" t="n">
-        <v>89.57789494497584</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="H40" t="n">
-        <v>89.57789494497584</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="I40" t="n">
-        <v>89.57789494497584</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="J40" t="n">
         <v>48.95845336911378</v>
@@ -7336,7 +7336,7 @@
         <v>113.8692614527294</v>
       </c>
       <c r="L40" t="n">
-        <v>254.5380363947379</v>
+        <v>254.5380363947378</v>
       </c>
       <c r="M40" t="n">
         <v>414.7709834069169</v>
@@ -7351,31 +7351,31 @@
         <v>806.5380492916081</v>
       </c>
       <c r="Q40" t="n">
-        <v>806.5380492916081</v>
+        <v>791.0226377715527</v>
       </c>
       <c r="R40" t="n">
-        <v>806.5380492916081</v>
+        <v>791.0226377715527</v>
       </c>
       <c r="S40" t="n">
-        <v>770.8817559550952</v>
+        <v>755.3663444350398</v>
       </c>
       <c r="T40" t="n">
-        <v>712.1396470757812</v>
+        <v>696.6242355557258</v>
       </c>
       <c r="U40" t="n">
-        <v>598.2265324648962</v>
+        <v>582.7111209448408</v>
       </c>
       <c r="V40" t="n">
-        <v>337.4912280233188</v>
+        <v>495.2379450316622</v>
       </c>
       <c r="W40" t="n">
-        <v>206.6345009565064</v>
+        <v>382.34367207746</v>
       </c>
       <c r="X40" t="n">
-        <v>148.644165380281</v>
+        <v>324.3533365012346</v>
       </c>
       <c r="Y40" t="n">
-        <v>99.87113510095686</v>
+        <v>275.5803062219105</v>
       </c>
     </row>
     <row r="41">
@@ -7394,13 +7394,13 @@
         <v>906.8821572143299</v>
       </c>
       <c r="E41" t="n">
-        <v>685.358565848836</v>
+        <v>685.3585658488356</v>
       </c>
       <c r="F41" t="n">
-        <v>444.4695036874051</v>
+        <v>444.4695036874048</v>
       </c>
       <c r="G41" t="n">
-        <v>202.2405627008747</v>
+        <v>202.2405627008748</v>
       </c>
       <c r="H41" t="n">
         <v>48.95845336911378</v>
@@ -7409,25 +7409,25 @@
         <v>48.95845336911378</v>
       </c>
       <c r="J41" t="n">
-        <v>48.95845336911378</v>
+        <v>171.9423552115156</v>
       </c>
       <c r="K41" t="n">
-        <v>365.5126598202179</v>
+        <v>488.4965616626197</v>
       </c>
       <c r="L41" t="n">
-        <v>808.196151459653</v>
+        <v>931.1800533020548</v>
       </c>
       <c r="M41" t="n">
-        <v>1306.916490246562</v>
+        <v>1082.339763848231</v>
       </c>
       <c r="N41" t="n">
-        <v>1792.435817116866</v>
+        <v>1567.859090718535</v>
       </c>
       <c r="O41" t="n">
-        <v>2198.654960451589</v>
+        <v>1974.078234053258</v>
       </c>
       <c r="P41" t="n">
-        <v>2447.922668455689</v>
+        <v>2288.619414816354</v>
       </c>
       <c r="Q41" t="n">
         <v>2447.922668455689</v>
@@ -7494,16 +7494,16 @@
         <v>420.9709180854681</v>
       </c>
       <c r="L42" t="n">
-        <v>856.580379986273</v>
+        <v>856.5803799862729</v>
       </c>
       <c r="M42" t="n">
-        <v>1416.978673320065</v>
+        <v>1423.052590551987</v>
       </c>
       <c r="N42" t="n">
-        <v>1416.978673320065</v>
+        <v>1423.052590551987</v>
       </c>
       <c r="O42" t="n">
-        <v>1885.651078296514</v>
+        <v>1891.724995528436</v>
       </c>
       <c r="P42" t="n">
         <v>2249.122883992184</v>
@@ -7515,7 +7515,7 @@
         <v>2408.499416583027</v>
       </c>
       <c r="S42" t="n">
-        <v>2261.791262396854</v>
+        <v>2338.890912154576</v>
       </c>
       <c r="T42" t="n">
         <v>2151.527634730053</v>
@@ -7573,7 +7573,7 @@
         <v>113.8692614527294</v>
       </c>
       <c r="L43" t="n">
-        <v>254.5380363947379</v>
+        <v>254.5380363947378</v>
       </c>
       <c r="M43" t="n">
         <v>414.7709834069169</v>
@@ -7594,25 +7594,25 @@
         <v>791.0226377715527</v>
       </c>
       <c r="S43" t="n">
-        <v>712.2998602666228</v>
+        <v>755.3663444350398</v>
       </c>
       <c r="T43" t="n">
-        <v>653.5577513873088</v>
+        <v>696.6242355557258</v>
       </c>
       <c r="U43" t="n">
-        <v>366.3825082480249</v>
+        <v>582.7111209448408</v>
       </c>
       <c r="V43" t="n">
-        <v>278.9093323348463</v>
+        <v>495.2379450316622</v>
       </c>
       <c r="W43" t="n">
-        <v>166.0150593806443</v>
+        <v>382.34367207746</v>
       </c>
       <c r="X43" t="n">
-        <v>108.0247238044189</v>
+        <v>281.2868523328178</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.25169352509477</v>
+        <v>59.25169352509483</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1315.115623597501</v>
+        <v>1315.115623597502</v>
       </c>
       <c r="C44" t="n">
         <v>1106.443993458708</v>
@@ -7631,10 +7631,10 @@
         <v>906.8821572143302</v>
       </c>
       <c r="E44" t="n">
-        <v>685.3585658488356</v>
+        <v>685.358565848836</v>
       </c>
       <c r="F44" t="n">
-        <v>444.4695036874048</v>
+        <v>444.4695036874051</v>
       </c>
       <c r="G44" t="n">
         <v>202.2405627008748</v>
@@ -7646,13 +7646,13 @@
         <v>48.95845336911378</v>
       </c>
       <c r="J44" t="n">
-        <v>171.9423552115155</v>
+        <v>171.9423552115156</v>
       </c>
       <c r="K44" t="n">
-        <v>488.4965616626196</v>
+        <v>488.4965616626197</v>
       </c>
       <c r="L44" t="n">
-        <v>931.1800533020546</v>
+        <v>931.1800533020548</v>
       </c>
       <c r="M44" t="n">
         <v>1082.339763848231</v>
@@ -7728,16 +7728,16 @@
         <v>139.5791295860049</v>
       </c>
       <c r="K45" t="n">
-        <v>420.9709180854679</v>
+        <v>420.9709180854681</v>
       </c>
       <c r="L45" t="n">
-        <v>856.5803799862726</v>
+        <v>850.5064627543513</v>
       </c>
       <c r="M45" t="n">
-        <v>1423.052590551987</v>
+        <v>1416.978673320065</v>
       </c>
       <c r="N45" t="n">
-        <v>1423.052590551987</v>
+        <v>1416.978673320065</v>
       </c>
       <c r="O45" t="n">
         <v>1885.651078296514</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>200.967467607795</v>
+        <v>242.0585499191988</v>
       </c>
       <c r="C46" t="n">
-        <v>200.967467607795</v>
+        <v>242.0585499191988</v>
       </c>
       <c r="D46" t="n">
-        <v>200.967467607795</v>
+        <v>242.0585499191988</v>
       </c>
       <c r="E46" t="n">
-        <v>48.95845336911378</v>
+        <v>242.0585499191988</v>
       </c>
       <c r="F46" t="n">
-        <v>48.95845336911378</v>
+        <v>89.57789494497585</v>
       </c>
       <c r="G46" t="n">
-        <v>48.95845336911378</v>
+        <v>89.57789494497585</v>
       </c>
       <c r="H46" t="n">
-        <v>48.95845336911378</v>
+        <v>89.57789494497585</v>
       </c>
       <c r="I46" t="n">
-        <v>48.95845336911378</v>
+        <v>89.57789494497585</v>
       </c>
       <c r="J46" t="n">
         <v>48.95845336911378</v>
@@ -7813,43 +7813,43 @@
         <v>254.5380363947378</v>
       </c>
       <c r="M46" t="n">
-        <v>414.7709834069167</v>
+        <v>414.7709834069169</v>
       </c>
       <c r="N46" t="n">
-        <v>574.4284065466516</v>
+        <v>574.4284065466518</v>
       </c>
       <c r="O46" t="n">
-        <v>710.9793247974538</v>
+        <v>710.9793247974542</v>
       </c>
       <c r="P46" t="n">
-        <v>806.5380492916078</v>
+        <v>806.5380492916081</v>
       </c>
       <c r="Q46" t="n">
-        <v>791.0226377715524</v>
+        <v>791.0226377715527</v>
       </c>
       <c r="R46" t="n">
-        <v>791.0226377715524</v>
+        <v>791.0226377715527</v>
       </c>
       <c r="S46" t="n">
-        <v>691.0467459769053</v>
+        <v>732.137828288309</v>
       </c>
       <c r="T46" t="n">
-        <v>632.3046370975914</v>
+        <v>673.3957194089951</v>
       </c>
       <c r="U46" t="n">
-        <v>518.3915224867063</v>
+        <v>559.4826047981101</v>
       </c>
       <c r="V46" t="n">
-        <v>430.9183465735277</v>
+        <v>472.0094288849314</v>
       </c>
       <c r="W46" t="n">
-        <v>318.0240736193256</v>
+        <v>359.1151559307293</v>
       </c>
       <c r="X46" t="n">
-        <v>260.0337380431001</v>
+        <v>301.1248203545039</v>
       </c>
       <c r="Y46" t="n">
-        <v>211.260707763776</v>
+        <v>252.3517900751798</v>
       </c>
     </row>
   </sheetData>
@@ -8687,25 +8687,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>95.59943624652232</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>95.80453685555008</v>
+        <v>95.80453685555004</v>
       </c>
       <c r="M11" t="n">
-        <v>371.3597824877169</v>
+        <v>455.5481880163649</v>
       </c>
       <c r="N11" t="n">
-        <v>453.0659516825797</v>
+        <v>453.0659516825794</v>
       </c>
       <c r="O11" t="n">
-        <v>459.6563810790548</v>
+        <v>181.9757746204118</v>
       </c>
       <c r="P11" t="n">
-        <v>100.6199562157595</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
         <v>115.0971104444071</v>
@@ -8766,28 +8766,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>72.38230935981316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>417.0214038611936</v>
+        <v>42.08289141893644</v>
       </c>
       <c r="M12" t="n">
-        <v>33.22243078842008</v>
+        <v>199.1676697584032</v>
       </c>
       <c r="N12" t="n">
-        <v>397.2149653555572</v>
+        <v>22.27645291330006</v>
       </c>
       <c r="O12" t="n">
-        <v>121.9651715914627</v>
+        <v>413.5530578288249</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>72.29261096215421</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>95.59943624652233</v>
+        <v>95.59943624652232</v>
       </c>
       <c r="K14" t="n">
         <v>101.6373126545301</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5940184920594</v>
+        <v>470.743049297807</v>
       </c>
       <c r="M14" t="n">
-        <v>455.5481880163651</v>
+        <v>80.60967557410794</v>
       </c>
       <c r="N14" t="n">
-        <v>453.0659516825797</v>
+        <v>453.0659516825794</v>
       </c>
       <c r="O14" t="n">
-        <v>459.6563810790548</v>
+        <v>459.6563810790545</v>
       </c>
       <c r="P14" t="n">
-        <v>100.6199562157595</v>
+        <v>299.4970604387996</v>
       </c>
       <c r="Q14" t="n">
-        <v>115.0971104444071</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9009,22 +9009,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>417.0214038611936</v>
+        <v>42.08289141893644</v>
       </c>
       <c r="M15" t="n">
-        <v>199.1676697584041</v>
+        <v>408.1609432306769</v>
       </c>
       <c r="N15" t="n">
-        <v>22.27645291330009</v>
+        <v>397.214965355557</v>
       </c>
       <c r="O15" t="n">
-        <v>38.61454538656798</v>
+        <v>38.61454538656795</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>405.8161888540943</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>72.2926109621542</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,22 +9161,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>95.59943624652233</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>357.7345649126597</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>95.80453685555008</v>
+        <v>470.743049297807</v>
       </c>
       <c r="M17" t="n">
-        <v>455.5481880163651</v>
+        <v>267.6675531093363</v>
       </c>
       <c r="N17" t="n">
-        <v>453.0659516825797</v>
+        <v>78.12743924032249</v>
       </c>
       <c r="O17" t="n">
-        <v>84.71786863679766</v>
+        <v>84.71786863679762</v>
       </c>
       <c r="P17" t="n">
         <v>418.3383206229274</v>
@@ -9243,25 +9243,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>59.57067831891464</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>417.0214038611936</v>
+        <v>208.0281303889196</v>
       </c>
       <c r="M18" t="n">
-        <v>408.1609432306772</v>
+        <v>33.22243078842004</v>
       </c>
       <c r="N18" t="n">
-        <v>22.27645291330009</v>
+        <v>22.27645291330006</v>
       </c>
       <c r="O18" t="n">
-        <v>413.5530578288251</v>
+        <v>413.5530578288249</v>
       </c>
       <c r="P18" t="n">
-        <v>315.1118062092752</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>72.29261096215421</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9404,22 +9404,22 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
-        <v>470.7430492978073</v>
+        <v>282.8624143907784</v>
       </c>
       <c r="M20" t="n">
-        <v>80.60967557410797</v>
+        <v>80.60967557410794</v>
       </c>
       <c r="N20" t="n">
-        <v>368.8775461539316</v>
+        <v>78.12743924032249</v>
       </c>
       <c r="O20" t="n">
-        <v>459.6563810790548</v>
+        <v>459.6563810790545</v>
       </c>
       <c r="P20" t="n">
-        <v>100.6199562157595</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>115.0971104444071</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,28 +9477,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>72.38230935981316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>59.57067831891464</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>401.8723730554458</v>
+        <v>208.0281303889196</v>
       </c>
       <c r="M21" t="n">
-        <v>408.1609432306773</v>
+        <v>33.22243078842004</v>
       </c>
       <c r="N21" t="n">
-        <v>397.2149653555572</v>
+        <v>22.27645291330006</v>
       </c>
       <c r="O21" t="n">
-        <v>413.5530578288251</v>
+        <v>413.5530578288249</v>
       </c>
       <c r="P21" t="n">
-        <v>46.85836115548407</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>72.29261096215421</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9641,16 +9641,16 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
-        <v>95.80453685555008</v>
+        <v>282.8624143907784</v>
       </c>
       <c r="M23" t="n">
-        <v>267.667553109337</v>
+        <v>455.5481880163648</v>
       </c>
       <c r="N23" t="n">
-        <v>78.12743924032253</v>
+        <v>78.12743924032249</v>
       </c>
       <c r="O23" t="n">
-        <v>459.6563810790547</v>
+        <v>84.71786863679762</v>
       </c>
       <c r="P23" t="n">
         <v>418.3383206229274</v>
@@ -9720,19 +9720,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>417.0214038611936</v>
+        <v>200.2328560230969</v>
       </c>
       <c r="M24" t="n">
-        <v>33.22243078842008</v>
+        <v>408.160943230677</v>
       </c>
       <c r="N24" t="n">
-        <v>22.27645291330009</v>
+        <v>397.214965355557</v>
       </c>
       <c r="O24" t="n">
-        <v>204.5597843565517</v>
+        <v>38.61454538656795</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>46.85836115548404</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -9951,13 +9951,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>72.38230935981316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>107.0232382276754</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>482.0924488944969</v>
+        <v>320.1102174050864</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
@@ -9969,10 +9969,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>414.0015992319183</v>
+        <v>46.85836115548404</v>
       </c>
       <c r="Q27" t="n">
-        <v>72.29261096215421</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>94.01961708077471</v>
+        <v>94.01961708077475</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>72.38230935981316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>185.555653663493</v>
+        <v>294.8274801752244</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10446,7 +10446,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>72.29261096215424</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10586,7 +10586,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
-        <v>388.0360590923757</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L35" t="n">
         <v>542.9595789155856</v>
@@ -10595,13 +10595,13 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N35" t="n">
-        <v>568.5510017355793</v>
+        <v>217.4796600782736</v>
       </c>
       <c r="O35" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>100.6199562157595</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
         <v>276.0094878578761</v>
@@ -10668,13 +10668,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>75.89640832439325</v>
       </c>
       <c r="M36" t="n">
-        <v>599.2813129437654</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>22.27645291330009</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>72.29261096215424</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>95.59943624652233</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>194.5438581623818</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
         <v>542.9595789155856</v>
@@ -10832,7 +10832,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N38" t="n">
-        <v>568.5510017355793</v>
+        <v>378.3920374917426</v>
       </c>
       <c r="O38" t="n">
         <v>495.0402356415689</v>
@@ -10841,7 +10841,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578761</v>
+        <v>115.0971104444071</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>72.38230935981316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -10911,13 +10911,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>474.8204576412187</v>
+        <v>22.27645291330013</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>505.8857451285144</v>
       </c>
       <c r="P39" t="n">
-        <v>46.85836115548407</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
         <v>273.1004740566038</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>95.59943624652233</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
@@ -11066,7 +11066,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M41" t="n">
-        <v>584.3675935406823</v>
+        <v>233.2962518833765</v>
       </c>
       <c r="N41" t="n">
         <v>568.5510017355793</v>
@@ -11075,10 +11075,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
-        <v>352.4055198562639</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>115.0971104444071</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11145,16 +11145,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>599.2813129437659</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>22.27645291330009</v>
+        <v>22.27645291330013</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>407.8663293006842</v>
       </c>
       <c r="Q42" t="n">
         <v>273.1004740566038</v>
@@ -11303,7 +11303,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>233.2962518833774</v>
+        <v>233.2962518833765</v>
       </c>
       <c r="N44" t="n">
         <v>568.5510017355793</v>
@@ -11379,16 +11379,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>475.9571789632629</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>22.27645291330023</v>
+        <v>22.27645291330013</v>
       </c>
       <c r="O45" t="n">
-        <v>505.8857451285147</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>220.1004714210319</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.8426089909374</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>261.0144250789146</v>
       </c>
       <c r="G11" t="n">
-        <v>262.3409051157629</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>174.2835417775414</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.53425353909802</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>70.46388924261858</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>103.2926861902832</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>151.4552899760864</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>209.9143271369582</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>229.2145853697048</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>42.11280211776048</v>
       </c>
     </row>
     <row r="12">
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>229.1191673765039</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>16.76447187947048</v>
+        <v>241.8426089909374</v>
       </c>
       <c r="F14" t="n">
-        <v>261.0144250789145</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>262.3409051157628</v>
+        <v>195.6188704562289</v>
       </c>
       <c r="H14" t="n">
         <v>174.2835417775414</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>70.46388924261851</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>184.6142276590013</v>
       </c>
       <c r="W14" t="n">
-        <v>209.9143271369581</v>
+        <v>209.9143271369582</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>240.6111831659035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -26314,16 +26314,16 @@
         <v>19146.91578768261</v>
       </c>
       <c r="C2" t="n">
+        <v>19146.91578768261</v>
+      </c>
+      <c r="D2" t="n">
         <v>19146.9157876826</v>
       </c>
-      <c r="D2" t="n">
-        <v>19146.91578768261</v>
-      </c>
       <c r="E2" t="n">
+        <v>16732.16995299416</v>
+      </c>
+      <c r="F2" t="n">
         <v>16732.16995299417</v>
-      </c>
-      <c r="F2" t="n">
-        <v>16732.16995299416</v>
       </c>
       <c r="G2" t="n">
         <v>19190.60151235454</v>
@@ -26335,7 +26335,7 @@
         <v>19190.60151235454</v>
       </c>
       <c r="J2" t="n">
-        <v>19190.60151235453</v>
+        <v>19190.60151235454</v>
       </c>
       <c r="K2" t="n">
         <v>19190.60151235454</v>
@@ -26347,7 +26347,7 @@
         <v>19190.60151235454</v>
       </c>
       <c r="N2" t="n">
-        <v>19190.60151235453</v>
+        <v>19190.60151235455</v>
       </c>
       <c r="O2" t="n">
         <v>19190.60151235454</v>
@@ -26375,13 +26375,13 @@
         <v>352409.0220339869</v>
       </c>
       <c r="F3" t="n">
-        <v>4.008273078527833e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>76159.64004103016</v>
+        <v>76159.6400410303</v>
       </c>
       <c r="H3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>136355.5574477963</v>
       </c>
       <c r="K3" t="n">
-        <v>5.145141455743993e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>76159.64004103014</v>
+        <v>76159.6400410303</v>
       </c>
       <c r="M3" t="n">
-        <v>83474.36825920508</v>
+        <v>83474.36825920496</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>4735.800136733565</v>
+        <v>4735.800136733519</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26424,10 +26424,10 @@
         <v>419756.4024566745</v>
       </c>
       <c r="E4" t="n">
-        <v>303300.2911377928</v>
+        <v>303300.2911377927</v>
       </c>
       <c r="F4" t="n">
-        <v>303300.2911377928</v>
+        <v>303300.2911377927</v>
       </c>
       <c r="G4" t="n">
         <v>359427.9628026185</v>
@@ -26442,10 +26442,10 @@
         <v>348294.7670570375</v>
       </c>
       <c r="K4" t="n">
-        <v>348294.7670570375</v>
+        <v>348294.7670570376</v>
       </c>
       <c r="L4" t="n">
-        <v>348294.7670570376</v>
+        <v>348294.7670570374</v>
       </c>
       <c r="M4" t="n">
         <v>349934.2306458565</v>
@@ -26476,25 +26476,25 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>38612.60241106101</v>
+        <v>38612.602411061</v>
       </c>
       <c r="F5" t="n">
-        <v>38612.60241106102</v>
+        <v>38612.602411061</v>
       </c>
       <c r="G5" t="n">
         <v>46615.93338432272</v>
       </c>
       <c r="H5" t="n">
-        <v>46615.93338432273</v>
+        <v>46615.93338432272</v>
       </c>
       <c r="I5" t="n">
         <v>46615.93338432272</v>
       </c>
       <c r="J5" t="n">
+        <v>65173.09918276491</v>
+      </c>
+      <c r="K5" t="n">
         <v>65173.0991827649</v>
-      </c>
-      <c r="K5" t="n">
-        <v>65173.09918276491</v>
       </c>
       <c r="L5" t="n">
         <v>65173.09918276491</v>
@@ -26509,7 +26509,7 @@
         <v>54919.19757587668</v>
       </c>
       <c r="P5" t="n">
-        <v>54919.19757587667</v>
+        <v>54919.19757587668</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-434237.0866689918</v>
+        <v>-434241.455241459</v>
       </c>
       <c r="C6" t="n">
-        <v>-434237.0866689919</v>
+        <v>-434241.455241459</v>
       </c>
       <c r="D6" t="n">
-        <v>-434237.0866689918</v>
+        <v>-434241.4552414591</v>
       </c>
       <c r="E6" t="n">
-        <v>-677589.7456298466</v>
+        <v>-677835.5887857823</v>
       </c>
       <c r="F6" t="n">
-        <v>-325180.7235958597</v>
+        <v>-325426.5667517956</v>
       </c>
       <c r="G6" t="n">
         <v>-463012.9347156169</v>
       </c>
       <c r="H6" t="n">
-        <v>-386853.2946745868</v>
+        <v>-386853.2946745867</v>
       </c>
       <c r="I6" t="n">
         <v>-386853.2946745867</v>
@@ -26698,13 +26698,13 @@
         <v>148.9952537040168</v>
       </c>
       <c r="G2" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="H2" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="I2" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="J2" t="n">
         <v>101.1193002222048</v>
@@ -26744,22 +26744,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150.9384803178345</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="F3" t="n">
-        <v>150.9384803178345</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="G3" t="n">
-        <v>150.9384803178345</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="H3" t="n">
-        <v>150.9384803178345</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="I3" t="n">
-        <v>150.9384803178345</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="J3" t="n">
-        <v>150.9384803178345</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="K3" t="n">
         <v>150.9384803178345</v>
@@ -26777,7 +26777,7 @@
         <v>150.9384803178345</v>
       </c>
       <c r="P3" t="n">
-        <v>150.9384803178343</v>
+        <v>150.9384803178345</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>374.9385124422571</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="F4" t="n">
-        <v>374.9385124422571</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="G4" t="n">
-        <v>374.9385124422571</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="H4" t="n">
-        <v>374.9385124422571</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="I4" t="n">
-        <v>374.9385124422571</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="J4" t="n">
         <v>877.9875306160458</v>
@@ -26817,10 +26817,10 @@
         <v>877.9875306160458</v>
       </c>
       <c r="L4" t="n">
-        <v>877.9875306160459</v>
+        <v>877.9875306160458</v>
       </c>
       <c r="M4" t="n">
-        <v>611.9806671139221</v>
+        <v>611.9806671139222</v>
       </c>
       <c r="N4" t="n">
         <v>611.9806671139222</v>
@@ -26917,37 +26917,37 @@
         <v>148.9952537040168</v>
       </c>
       <c r="F2" t="n">
-        <v>5.010341348159791e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>95.1995500512877</v>
+        <v>95.19955005128787</v>
       </c>
       <c r="H2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.919750170916927</v>
+        <v>5.919750170916899</v>
       </c>
       <c r="K2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95.19955005128769</v>
+        <v>95.19955005128789</v>
       </c>
       <c r="M2" t="n">
-        <v>70.41020702091011</v>
+        <v>70.41020702090995</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>5.919750170916956</v>
+        <v>5.919750170916899</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150.9384803178345</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>374.9385124422571</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>503.0490181737887</v>
+        <v>503.0490181737889</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>148.9952537040168</v>
       </c>
       <c r="K2" t="n">
-        <v>5.010341348159791e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>95.1995500512877</v>
+        <v>95.19955005128787</v>
       </c>
       <c r="M2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.919750170916927</v>
+        <v>5.919750170916899</v>
       </c>
       <c r="P2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>374.9385124422571</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.61576569231051</v>
+        <v>51.6157656923105</v>
       </c>
       <c r="S11" t="n">
         <v>148.9952537040168</v>
@@ -28166,25 +28166,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>6.46737934348738</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>81.97801351625799</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28214,22 +28214,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.02901935393511</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>145.2410726443114</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>148.9952537040168</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="X12" t="n">
         <v>148.9952537040168</v>
@@ -28266,7 +28266,7 @@
         <v>148.9952537040168</v>
       </c>
       <c r="I13" t="n">
-        <v>134.5756943977516</v>
+        <v>134.5756943977524</v>
       </c>
       <c r="J13" t="n">
         <v>40.21324716010344</v>
@@ -28290,10 +28290,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.36025740485484</v>
+        <v>15.36025740485483</v>
       </c>
       <c r="R13" t="n">
-        <v>135.7881746594385</v>
+        <v>135.7881746594375</v>
       </c>
       <c r="S13" t="n">
         <v>148.9952537040168</v>
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>51.61576569231051</v>
+        <v>51.6157656923105</v>
       </c>
       <c r="S14" t="n">
         <v>148.9952537040168</v>
@@ -28403,16 +28403,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>148.9952537040168</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>148.9952537040168</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
         <v>133.3468600696244</v>
@@ -28457,22 +28457,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>55.53947489675002</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>47.4319956927435</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="Y15" t="n">
-        <v>148.9952537040168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.36025740485484</v>
+        <v>15.36025740485483</v>
       </c>
       <c r="R16" t="n">
         <v>135.7881746594375</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="C17" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="D17" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="E17" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="F17" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="G17" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="H17" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="I17" t="n">
         <v>147.6958378085047</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>51.61576569231051</v>
+        <v>51.6157656923105</v>
       </c>
       <c r="S17" t="n">
         <v>171.5295072431148</v>
@@ -28618,19 +28618,19 @@
         <v>219.4591429466353</v>
       </c>
       <c r="U17" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="V17" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="W17" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="X17" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="Y17" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553047</v>
       </c>
     </row>
     <row r="18">
@@ -28658,7 +28658,7 @@
         <v>127.1165548494722</v>
       </c>
       <c r="H18" t="n">
-        <v>95.80294554235505</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28709,7 +28709,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>39.05562178019977</v>
+        <v>134.8585673225557</v>
       </c>
     </row>
     <row r="19">
@@ -28734,16 +28734,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>58.03072037809062</v>
+        <v>166.958367000993</v>
       </c>
       <c r="H19" t="n">
         <v>155.3589542808002</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.5756943977516</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>23.54642012202313</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,19 +28770,19 @@
         <v>135.7881746594375</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>206.8292376462626</v>
       </c>
       <c r="T19" t="n">
-        <v>229.6841950336356</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="V19" t="n">
-        <v>244.1948037553045</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="C20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="D20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="E20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="F20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="G20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="H20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="I20" t="n">
         <v>147.6958378085047</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.61576569231051</v>
+        <v>51.6157656923105</v>
       </c>
       <c r="S20" t="n">
         <v>171.5295072431148</v>
@@ -28855,19 +28855,19 @@
         <v>219.4591429466353</v>
       </c>
       <c r="U20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="V20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="W20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="X20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="Y20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
     </row>
     <row r="21">
@@ -28877,22 +28877,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.1165548494722</v>
       </c>
       <c r="H21" t="n">
         <v>95.80294554235505</v>
@@ -28928,25 +28928,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>145.2410726443114</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>185.4896446502776</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>216.28848525876</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>127.3080326880886</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>39.05562178020068</v>
       </c>
     </row>
     <row r="22">
@@ -28968,19 +28968,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.958367000993</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>155.3589542808002</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.5756943977516</v>
       </c>
       <c r="J22" t="n">
-        <v>40.21324716010344</v>
+        <v>8.378746356980017</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,22 +29004,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>135.7881746594375</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>173.1764274987871</v>
+        <v>206.8292376462626</v>
       </c>
       <c r="T22" t="n">
-        <v>229.6841950336356</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>244.1948037553046</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="W22" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="C23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="D23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="E23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="F23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="G23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="H23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="I23" t="n">
         <v>147.6958378085047</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.61576569231051</v>
+        <v>51.6157656923105</v>
       </c>
       <c r="S23" t="n">
         <v>171.5295072431148</v>
@@ -29092,19 +29092,19 @@
         <v>219.4591429466353</v>
       </c>
       <c r="U23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="V23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="W23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="X23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="Y23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
     </row>
     <row r="24">
@@ -29129,10 +29129,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.1165548494722</v>
       </c>
       <c r="H24" t="n">
-        <v>95.80294554235505</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29165,13 +29165,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>17.57698452739811</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>48.8905938345145</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -29205,19 +29205,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.958367000993</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>155.3589542808002</v>
       </c>
       <c r="I25" t="n">
         <v>134.5756943977516</v>
       </c>
       <c r="J25" t="n">
-        <v>40.21324716010344</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.36025740485484</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>135.7881746594375</v>
       </c>
       <c r="S25" t="n">
-        <v>8.072801931137604</v>
+        <v>206.8292376462626</v>
       </c>
       <c r="T25" t="n">
-        <v>229.6841950336356</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="V25" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="W25" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>180.8862385839001</v>
       </c>
     </row>
     <row r="26">
@@ -29302,10 +29302,10 @@
         <v>101.1193002222048</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="M26" t="n">
-        <v>45.98902442737403</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="N26" t="n">
         <v>101.1193002222048</v>
@@ -29314,10 +29314,10 @@
         <v>101.1193002222048</v>
       </c>
       <c r="P26" t="n">
-        <v>101.1193002222048</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>101.1193002222048</v>
+        <v>45.98902442737358</v>
       </c>
       <c r="R26" t="n">
         <v>101.1193002222048</v>
@@ -29533,10 +29533,10 @@
         <v>101.1193002222048</v>
       </c>
       <c r="J29" t="n">
-        <v>101.1193002222048</v>
+        <v>45.98902442737409</v>
       </c>
       <c r="K29" t="n">
-        <v>101.1193002222048</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>101.1193002222048</v>
@@ -29545,10 +29545,10 @@
         <v>101.1193002222048</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="O29" t="n">
-        <v>45.98902442737386</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="P29" t="n">
         <v>101.1193002222048</v>
@@ -29706,7 +29706,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="O31" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222055</v>
       </c>
       <c r="P31" t="n">
         <v>101.1193002222048</v>
@@ -29782,16 +29782,16 @@
         <v>101.1193002222048</v>
       </c>
       <c r="N32" t="n">
-        <v>101.1193002222048</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>45.98902442737392</v>
       </c>
       <c r="P32" t="n">
         <v>101.1193002222048</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.98902442737452</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="R32" t="n">
         <v>101.1193002222048</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.61576569231051</v>
+        <v>51.61576569231053</v>
       </c>
       <c r="S35" t="n">
         <v>171.5295072431148</v>
@@ -30080,7 +30080,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>76.32865326014509</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>39.02901935393512</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30119,7 +30119,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>37.29963390620941</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>165.4972376763072</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>125.2839905162043</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30165,7 +30165,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>40.21324716010345</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30204,7 +30204,7 @@
         <v>171.5295072431148</v>
       </c>
       <c r="W37" t="n">
-        <v>171.5295072431148</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>171.5295072431148</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>51.61576569231051</v>
+        <v>51.61576569231053</v>
       </c>
       <c r="S38" t="n">
         <v>171.5295072431148</v>
@@ -30314,13 +30314,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>19.80818203438996</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>56.52047122575469</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,10 +30347,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>39.02901935393511</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>37.29963390620942</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -30390,10 +30390,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.958367000993</v>
+        <v>103.7488888556262</v>
       </c>
       <c r="H40" t="n">
         <v>155.3589542808002</v>
@@ -30402,7 +30402,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>40.21324716010345</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.36025740485484</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>135.7881746594375</v>
@@ -30438,10 +30438,10 @@
         <v>171.5295072431148</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="W40" t="n">
-        <v>153.7466776716306</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="X40" t="n">
         <v>171.5295072431148</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>51.61576569231051</v>
+        <v>51.61576569231053</v>
       </c>
       <c r="S41" t="n">
         <v>171.5295072431148</v>
@@ -30587,10 +30587,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>76.32865326014449</v>
       </c>
       <c r="T42" t="n">
-        <v>76.32865326014428</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J43" t="n">
-        <v>40.21324716010344</v>
+        <v>40.21324716010345</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,13 +30666,13 @@
         <v>135.7881746594375</v>
       </c>
       <c r="S43" t="n">
-        <v>128.893687916382</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="T43" t="n">
         <v>171.5295072431148</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="V43" t="n">
         <v>171.5295072431148</v>
@@ -30681,10 +30681,10 @@
         <v>171.5295072431148</v>
       </c>
       <c r="X43" t="n">
-        <v>171.5295072431148</v>
+        <v>128.8936879163821</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.5295072431148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30715,7 +30715,7 @@
         <v>171.5295072431148</v>
       </c>
       <c r="I44" t="n">
-        <v>147.6958378085048</v>
+        <v>147.6958378085047</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>51.61576569231057</v>
+        <v>51.61576569231053</v>
       </c>
       <c r="S44" t="n">
         <v>171.5295072431148</v>
@@ -30861,10 +30861,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.958367000993</v>
@@ -30876,7 +30876,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J46" t="n">
-        <v>40.21324716010348</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,10 +30900,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>135.7881746594376</v>
+        <v>135.7881746594375</v>
       </c>
       <c r="S46" t="n">
-        <v>107.853104769562</v>
+        <v>148.5332762578514</v>
       </c>
       <c r="T46" t="n">
         <v>171.5295072431148</v>
@@ -31750,22 +31750,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6067878605742087</v>
+        <v>0.606787860574209</v>
       </c>
       <c r="H11" t="n">
-        <v>6.214266177105618</v>
+        <v>6.214266177105619</v>
       </c>
       <c r="I11" t="n">
-        <v>23.39318899478721</v>
+        <v>23.39318899478722</v>
       </c>
       <c r="J11" t="n">
-        <v>51.5003611814103</v>
+        <v>51.50036118141032</v>
       </c>
       <c r="K11" t="n">
-        <v>77.18569131951656</v>
+        <v>77.18569131951659</v>
       </c>
       <c r="L11" t="n">
-        <v>95.75567530756453</v>
+        <v>95.75567530756457</v>
       </c>
       <c r="M11" t="n">
         <v>106.5466389230511</v>
@@ -31777,22 +31777,22 @@
         <v>102.2369281433228</v>
       </c>
       <c r="P11" t="n">
-        <v>87.25685283539701</v>
+        <v>87.25685283539704</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.52626257858313</v>
+        <v>65.52626257858316</v>
       </c>
       <c r="R11" t="n">
-        <v>38.11613794679467</v>
+        <v>38.11613794679469</v>
       </c>
       <c r="S11" t="n">
         <v>13.8271783728348</v>
       </c>
       <c r="T11" t="n">
-        <v>2.6562138596636</v>
+        <v>2.656213859663601</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04854302884593669</v>
+        <v>0.04854302884593671</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.324660127476097</v>
+        <v>0.3246601274760971</v>
       </c>
       <c r="H12" t="n">
-        <v>3.135533336413884</v>
+        <v>3.135533336413885</v>
       </c>
       <c r="I12" t="n">
         <v>11.17799123108492</v>
       </c>
       <c r="J12" t="n">
-        <v>30.67326230685353</v>
+        <v>30.67326230685354</v>
       </c>
       <c r="K12" t="n">
-        <v>52.42549084775203</v>
+        <v>52.42549084775204</v>
       </c>
       <c r="L12" t="n">
-        <v>70.49254215221133</v>
+        <v>70.49254215221134</v>
       </c>
       <c r="M12" t="n">
-        <v>82.26147177321981</v>
+        <v>82.26147177321985</v>
       </c>
       <c r="N12" t="n">
-        <v>84.43868815440823</v>
+        <v>84.43868815440825</v>
       </c>
       <c r="O12" t="n">
-        <v>77.24490322454312</v>
+        <v>77.24490322454315</v>
       </c>
       <c r="P12" t="n">
-        <v>61.99584486865925</v>
+        <v>61.99584486865928</v>
       </c>
       <c r="Q12" t="n">
-        <v>41.44258048273827</v>
+        <v>41.44258048273829</v>
       </c>
       <c r="R12" t="n">
         <v>20.15740686206856</v>
       </c>
       <c r="S12" t="n">
-        <v>6.030419473075744</v>
+        <v>6.030419473075747</v>
       </c>
       <c r="T12" t="n">
         <v>1.308608145397075</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2721841448354393</v>
+        <v>0.2721841448354394</v>
       </c>
       <c r="H13" t="n">
-        <v>2.419964487718726</v>
+        <v>2.419964487718727</v>
       </c>
       <c r="I13" t="n">
-        <v>8.185319555596669</v>
+        <v>8.185319555596672</v>
       </c>
       <c r="J13" t="n">
         <v>19.24341903986556</v>
       </c>
       <c r="K13" t="n">
-        <v>31.62284882724467</v>
+        <v>31.62284882724468</v>
       </c>
       <c r="L13" t="n">
-        <v>40.46635913307978</v>
+        <v>40.46635913307979</v>
       </c>
       <c r="M13" t="n">
-        <v>42.66610190361345</v>
+        <v>42.66610190361347</v>
       </c>
       <c r="N13" t="n">
-        <v>41.6515973637723</v>
+        <v>41.65159736377232</v>
       </c>
       <c r="O13" t="n">
-        <v>38.47199167183102</v>
+        <v>38.47199167183103</v>
       </c>
       <c r="P13" t="n">
-        <v>32.91943511718803</v>
+        <v>32.91943511718804</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.79171052799301</v>
+        <v>22.79171052799303</v>
       </c>
       <c r="R13" t="n">
-        <v>12.23838891232802</v>
+        <v>12.23838891232803</v>
       </c>
       <c r="S13" t="n">
-        <v>4.7434273240867</v>
+        <v>4.743427324086702</v>
       </c>
       <c r="T13" t="n">
-        <v>1.162968618842331</v>
+        <v>1.162968618842332</v>
       </c>
       <c r="U13" t="n">
         <v>0.01484640790011489</v>
@@ -31987,22 +31987,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6067878605742087</v>
+        <v>0.606787860574209</v>
       </c>
       <c r="H14" t="n">
-        <v>6.214266177105618</v>
+        <v>6.214266177105619</v>
       </c>
       <c r="I14" t="n">
-        <v>23.39318899478721</v>
+        <v>23.39318899478722</v>
       </c>
       <c r="J14" t="n">
-        <v>51.5003611814103</v>
+        <v>51.50036118141032</v>
       </c>
       <c r="K14" t="n">
-        <v>77.18569131951656</v>
+        <v>77.18569131951659</v>
       </c>
       <c r="L14" t="n">
-        <v>95.75567530756453</v>
+        <v>95.75567530756457</v>
       </c>
       <c r="M14" t="n">
         <v>106.5466389230511</v>
@@ -32014,22 +32014,22 @@
         <v>102.2369281433228</v>
       </c>
       <c r="P14" t="n">
-        <v>87.25685283539701</v>
+        <v>87.25685283539704</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.52626257858313</v>
+        <v>65.52626257858316</v>
       </c>
       <c r="R14" t="n">
-        <v>38.11613794679467</v>
+        <v>38.11613794679469</v>
       </c>
       <c r="S14" t="n">
         <v>13.8271783728348</v>
       </c>
       <c r="T14" t="n">
-        <v>2.6562138596636</v>
+        <v>2.656213859663601</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04854302884593669</v>
+        <v>0.04854302884593671</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.324660127476097</v>
+        <v>0.3246601274760971</v>
       </c>
       <c r="H15" t="n">
-        <v>3.135533336413884</v>
+        <v>3.135533336413885</v>
       </c>
       <c r="I15" t="n">
         <v>11.17799123108492</v>
       </c>
       <c r="J15" t="n">
-        <v>30.67326230685353</v>
+        <v>30.67326230685354</v>
       </c>
       <c r="K15" t="n">
-        <v>52.42549084775203</v>
+        <v>52.42549084775204</v>
       </c>
       <c r="L15" t="n">
-        <v>70.49254215221133</v>
+        <v>70.49254215221134</v>
       </c>
       <c r="M15" t="n">
-        <v>82.26147177321981</v>
+        <v>82.26147177321985</v>
       </c>
       <c r="N15" t="n">
-        <v>84.43868815440823</v>
+        <v>84.43868815440825</v>
       </c>
       <c r="O15" t="n">
-        <v>77.24490322454312</v>
+        <v>77.24490322454315</v>
       </c>
       <c r="P15" t="n">
-        <v>61.99584486865925</v>
+        <v>61.99584486865928</v>
       </c>
       <c r="Q15" t="n">
-        <v>41.44258048273827</v>
+        <v>41.44258048273829</v>
       </c>
       <c r="R15" t="n">
         <v>20.15740686206856</v>
       </c>
       <c r="S15" t="n">
-        <v>6.030419473075744</v>
+        <v>6.030419473075747</v>
       </c>
       <c r="T15" t="n">
         <v>1.308608145397075</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2721841448354393</v>
+        <v>0.2721841448354394</v>
       </c>
       <c r="H16" t="n">
-        <v>2.419964487718726</v>
+        <v>2.419964487718727</v>
       </c>
       <c r="I16" t="n">
-        <v>8.185319555596669</v>
+        <v>8.185319555596672</v>
       </c>
       <c r="J16" t="n">
         <v>19.24341903986556</v>
       </c>
       <c r="K16" t="n">
-        <v>31.62284882724467</v>
+        <v>31.62284882724468</v>
       </c>
       <c r="L16" t="n">
-        <v>40.46635913307978</v>
+        <v>40.46635913307979</v>
       </c>
       <c r="M16" t="n">
-        <v>42.66610190361345</v>
+        <v>42.66610190361347</v>
       </c>
       <c r="N16" t="n">
-        <v>41.6515973637723</v>
+        <v>41.65159736377232</v>
       </c>
       <c r="O16" t="n">
-        <v>38.47199167183102</v>
+        <v>38.47199167183103</v>
       </c>
       <c r="P16" t="n">
-        <v>32.91943511718803</v>
+        <v>32.91943511718804</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.79171052799301</v>
+        <v>22.79171052799303</v>
       </c>
       <c r="R16" t="n">
-        <v>12.23838891232802</v>
+        <v>12.23838891232803</v>
       </c>
       <c r="S16" t="n">
-        <v>4.7434273240867</v>
+        <v>4.743427324086702</v>
       </c>
       <c r="T16" t="n">
-        <v>1.162968618842331</v>
+        <v>1.162968618842332</v>
       </c>
       <c r="U16" t="n">
         <v>0.01484640790011489</v>
@@ -32224,22 +32224,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6067878605742087</v>
+        <v>0.606787860574209</v>
       </c>
       <c r="H17" t="n">
-        <v>6.214266177105618</v>
+        <v>6.214266177105619</v>
       </c>
       <c r="I17" t="n">
-        <v>23.39318899478721</v>
+        <v>23.39318899478722</v>
       </c>
       <c r="J17" t="n">
-        <v>51.5003611814103</v>
+        <v>51.50036118141032</v>
       </c>
       <c r="K17" t="n">
-        <v>77.18569131951656</v>
+        <v>77.18569131951659</v>
       </c>
       <c r="L17" t="n">
-        <v>95.75567530756453</v>
+        <v>95.75567530756457</v>
       </c>
       <c r="M17" t="n">
         <v>106.5466389230511</v>
@@ -32251,22 +32251,22 @@
         <v>102.2369281433228</v>
       </c>
       <c r="P17" t="n">
-        <v>87.25685283539701</v>
+        <v>87.25685283539704</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.52626257858313</v>
+        <v>65.52626257858316</v>
       </c>
       <c r="R17" t="n">
-        <v>38.11613794679467</v>
+        <v>38.11613794679469</v>
       </c>
       <c r="S17" t="n">
         <v>13.8271783728348</v>
       </c>
       <c r="T17" t="n">
-        <v>2.6562138596636</v>
+        <v>2.656213859663601</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04854302884593669</v>
+        <v>0.04854302884593671</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32303,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.324660127476097</v>
+        <v>0.3246601274760971</v>
       </c>
       <c r="H18" t="n">
-        <v>3.135533336413884</v>
+        <v>3.135533336413885</v>
       </c>
       <c r="I18" t="n">
         <v>11.17799123108492</v>
       </c>
       <c r="J18" t="n">
-        <v>30.67326230685353</v>
+        <v>30.67326230685354</v>
       </c>
       <c r="K18" t="n">
-        <v>52.42549084775203</v>
+        <v>52.42549084775204</v>
       </c>
       <c r="L18" t="n">
-        <v>70.49254215221133</v>
+        <v>70.49254215221134</v>
       </c>
       <c r="M18" t="n">
-        <v>82.26147177321981</v>
+        <v>82.26147177321985</v>
       </c>
       <c r="N18" t="n">
-        <v>84.43868815440823</v>
+        <v>84.43868815440825</v>
       </c>
       <c r="O18" t="n">
-        <v>77.24490322454312</v>
+        <v>77.24490322454315</v>
       </c>
       <c r="P18" t="n">
-        <v>61.99584486865925</v>
+        <v>61.99584486865928</v>
       </c>
       <c r="Q18" t="n">
-        <v>41.44258048273827</v>
+        <v>41.44258048273829</v>
       </c>
       <c r="R18" t="n">
         <v>20.15740686206856</v>
       </c>
       <c r="S18" t="n">
-        <v>6.030419473075744</v>
+        <v>6.030419473075747</v>
       </c>
       <c r="T18" t="n">
         <v>1.308608145397075</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2721841448354393</v>
+        <v>0.2721841448354394</v>
       </c>
       <c r="H19" t="n">
-        <v>2.419964487718726</v>
+        <v>2.419964487718727</v>
       </c>
       <c r="I19" t="n">
-        <v>8.185319555596669</v>
+        <v>8.185319555596672</v>
       </c>
       <c r="J19" t="n">
         <v>19.24341903986556</v>
       </c>
       <c r="K19" t="n">
-        <v>31.62284882724467</v>
+        <v>31.62284882724468</v>
       </c>
       <c r="L19" t="n">
-        <v>40.46635913307978</v>
+        <v>40.46635913307979</v>
       </c>
       <c r="M19" t="n">
-        <v>42.66610190361345</v>
+        <v>42.66610190361347</v>
       </c>
       <c r="N19" t="n">
-        <v>41.6515973637723</v>
+        <v>41.65159736377232</v>
       </c>
       <c r="O19" t="n">
-        <v>38.47199167183102</v>
+        <v>38.47199167183103</v>
       </c>
       <c r="P19" t="n">
-        <v>32.91943511718803</v>
+        <v>32.91943511718804</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.79171052799301</v>
+        <v>22.79171052799303</v>
       </c>
       <c r="R19" t="n">
-        <v>12.23838891232802</v>
+        <v>12.23838891232803</v>
       </c>
       <c r="S19" t="n">
-        <v>4.7434273240867</v>
+        <v>4.743427324086702</v>
       </c>
       <c r="T19" t="n">
-        <v>1.162968618842331</v>
+        <v>1.162968618842332</v>
       </c>
       <c r="U19" t="n">
         <v>0.01484640790011489</v>
@@ -32461,22 +32461,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6067878605742087</v>
+        <v>0.606787860574209</v>
       </c>
       <c r="H20" t="n">
-        <v>6.214266177105618</v>
+        <v>6.214266177105619</v>
       </c>
       <c r="I20" t="n">
-        <v>23.39318899478721</v>
+        <v>23.39318899478722</v>
       </c>
       <c r="J20" t="n">
-        <v>51.5003611814103</v>
+        <v>51.50036118141032</v>
       </c>
       <c r="K20" t="n">
-        <v>77.18569131951656</v>
+        <v>77.18569131951659</v>
       </c>
       <c r="L20" t="n">
-        <v>95.75567530756453</v>
+        <v>95.75567530756457</v>
       </c>
       <c r="M20" t="n">
         <v>106.5466389230511</v>
@@ -32488,22 +32488,22 @@
         <v>102.2369281433228</v>
       </c>
       <c r="P20" t="n">
-        <v>87.25685283539701</v>
+        <v>87.25685283539704</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.52626257858313</v>
+        <v>65.52626257858316</v>
       </c>
       <c r="R20" t="n">
-        <v>38.11613794679467</v>
+        <v>38.11613794679469</v>
       </c>
       <c r="S20" t="n">
         <v>13.8271783728348</v>
       </c>
       <c r="T20" t="n">
-        <v>2.6562138596636</v>
+        <v>2.656213859663601</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04854302884593669</v>
+        <v>0.04854302884593671</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32540,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.324660127476097</v>
+        <v>0.3246601274760971</v>
       </c>
       <c r="H21" t="n">
-        <v>3.135533336413884</v>
+        <v>3.135533336413885</v>
       </c>
       <c r="I21" t="n">
         <v>11.17799123108492</v>
       </c>
       <c r="J21" t="n">
-        <v>30.67326230685353</v>
+        <v>30.67326230685354</v>
       </c>
       <c r="K21" t="n">
-        <v>52.42549084775203</v>
+        <v>52.42549084775204</v>
       </c>
       <c r="L21" t="n">
-        <v>70.49254215221133</v>
+        <v>70.49254215221134</v>
       </c>
       <c r="M21" t="n">
-        <v>82.26147177321981</v>
+        <v>82.26147177321985</v>
       </c>
       <c r="N21" t="n">
-        <v>84.43868815440823</v>
+        <v>84.43868815440825</v>
       </c>
       <c r="O21" t="n">
-        <v>77.24490322454312</v>
+        <v>77.24490322454315</v>
       </c>
       <c r="P21" t="n">
-        <v>61.99584486865925</v>
+        <v>61.99584486865928</v>
       </c>
       <c r="Q21" t="n">
-        <v>41.44258048273827</v>
+        <v>41.44258048273829</v>
       </c>
       <c r="R21" t="n">
         <v>20.15740686206856</v>
       </c>
       <c r="S21" t="n">
-        <v>6.030419473075744</v>
+        <v>6.030419473075747</v>
       </c>
       <c r="T21" t="n">
         <v>1.308608145397075</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2721841448354393</v>
+        <v>0.2721841448354394</v>
       </c>
       <c r="H22" t="n">
-        <v>2.419964487718726</v>
+        <v>2.419964487718727</v>
       </c>
       <c r="I22" t="n">
-        <v>8.185319555596669</v>
+        <v>8.185319555596672</v>
       </c>
       <c r="J22" t="n">
         <v>19.24341903986556</v>
       </c>
       <c r="K22" t="n">
-        <v>31.62284882724467</v>
+        <v>31.62284882724468</v>
       </c>
       <c r="L22" t="n">
-        <v>40.46635913307978</v>
+        <v>40.46635913307979</v>
       </c>
       <c r="M22" t="n">
-        <v>42.66610190361345</v>
+        <v>42.66610190361347</v>
       </c>
       <c r="N22" t="n">
-        <v>41.6515973637723</v>
+        <v>41.65159736377232</v>
       </c>
       <c r="O22" t="n">
-        <v>38.47199167183102</v>
+        <v>38.47199167183103</v>
       </c>
       <c r="P22" t="n">
-        <v>32.91943511718803</v>
+        <v>32.91943511718804</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.79171052799301</v>
+        <v>22.79171052799303</v>
       </c>
       <c r="R22" t="n">
-        <v>12.23838891232802</v>
+        <v>12.23838891232803</v>
       </c>
       <c r="S22" t="n">
-        <v>4.7434273240867</v>
+        <v>4.743427324086702</v>
       </c>
       <c r="T22" t="n">
-        <v>1.162968618842331</v>
+        <v>1.162968618842332</v>
       </c>
       <c r="U22" t="n">
         <v>0.01484640790011489</v>
@@ -32698,22 +32698,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6067878605742087</v>
+        <v>0.606787860574209</v>
       </c>
       <c r="H23" t="n">
-        <v>6.214266177105618</v>
+        <v>6.214266177105619</v>
       </c>
       <c r="I23" t="n">
-        <v>23.39318899478721</v>
+        <v>23.39318899478722</v>
       </c>
       <c r="J23" t="n">
-        <v>51.5003611814103</v>
+        <v>51.50036118141032</v>
       </c>
       <c r="K23" t="n">
-        <v>77.18569131951656</v>
+        <v>77.18569131951659</v>
       </c>
       <c r="L23" t="n">
-        <v>95.75567530756453</v>
+        <v>95.75567530756457</v>
       </c>
       <c r="M23" t="n">
         <v>106.5466389230511</v>
@@ -32725,22 +32725,22 @@
         <v>102.2369281433228</v>
       </c>
       <c r="P23" t="n">
-        <v>87.25685283539701</v>
+        <v>87.25685283539704</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.52626257858313</v>
+        <v>65.52626257858316</v>
       </c>
       <c r="R23" t="n">
-        <v>38.11613794679467</v>
+        <v>38.11613794679469</v>
       </c>
       <c r="S23" t="n">
         <v>13.8271783728348</v>
       </c>
       <c r="T23" t="n">
-        <v>2.6562138596636</v>
+        <v>2.656213859663601</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04854302884593669</v>
+        <v>0.04854302884593671</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,43 +32777,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.324660127476097</v>
+        <v>0.3246601274760971</v>
       </c>
       <c r="H24" t="n">
-        <v>3.135533336413884</v>
+        <v>3.135533336413885</v>
       </c>
       <c r="I24" t="n">
         <v>11.17799123108492</v>
       </c>
       <c r="J24" t="n">
-        <v>30.67326230685353</v>
+        <v>30.67326230685354</v>
       </c>
       <c r="K24" t="n">
-        <v>52.42549084775203</v>
+        <v>52.42549084775204</v>
       </c>
       <c r="L24" t="n">
-        <v>70.49254215221133</v>
+        <v>70.49254215221134</v>
       </c>
       <c r="M24" t="n">
-        <v>82.26147177321981</v>
+        <v>82.26147177321985</v>
       </c>
       <c r="N24" t="n">
-        <v>84.43868815440823</v>
+        <v>84.43868815440825</v>
       </c>
       <c r="O24" t="n">
-        <v>77.24490322454312</v>
+        <v>77.24490322454315</v>
       </c>
       <c r="P24" t="n">
-        <v>61.99584486865925</v>
+        <v>61.99584486865928</v>
       </c>
       <c r="Q24" t="n">
-        <v>41.44258048273827</v>
+        <v>41.44258048273829</v>
       </c>
       <c r="R24" t="n">
         <v>20.15740686206856</v>
       </c>
       <c r="S24" t="n">
-        <v>6.030419473075744</v>
+        <v>6.030419473075747</v>
       </c>
       <c r="T24" t="n">
         <v>1.308608145397075</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2721841448354393</v>
+        <v>0.2721841448354394</v>
       </c>
       <c r="H25" t="n">
-        <v>2.419964487718726</v>
+        <v>2.419964487718727</v>
       </c>
       <c r="I25" t="n">
-        <v>8.185319555596669</v>
+        <v>8.185319555596672</v>
       </c>
       <c r="J25" t="n">
         <v>19.24341903986556</v>
       </c>
       <c r="K25" t="n">
-        <v>31.62284882724467</v>
+        <v>31.62284882724468</v>
       </c>
       <c r="L25" t="n">
-        <v>40.46635913307978</v>
+        <v>40.46635913307979</v>
       </c>
       <c r="M25" t="n">
-        <v>42.66610190361345</v>
+        <v>42.66610190361347</v>
       </c>
       <c r="N25" t="n">
-        <v>41.6515973637723</v>
+        <v>41.65159736377232</v>
       </c>
       <c r="O25" t="n">
-        <v>38.47199167183102</v>
+        <v>38.47199167183103</v>
       </c>
       <c r="P25" t="n">
-        <v>32.91943511718803</v>
+        <v>32.91943511718804</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.79171052799301</v>
+        <v>22.79171052799303</v>
       </c>
       <c r="R25" t="n">
-        <v>12.23838891232802</v>
+        <v>12.23838891232803</v>
       </c>
       <c r="S25" t="n">
-        <v>4.7434273240867</v>
+        <v>4.743427324086702</v>
       </c>
       <c r="T25" t="n">
-        <v>1.162968618842331</v>
+        <v>1.162968618842332</v>
       </c>
       <c r="U25" t="n">
         <v>0.01484640790011489</v>
@@ -32935,22 +32935,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6067878605742087</v>
+        <v>0.606787860574209</v>
       </c>
       <c r="H26" t="n">
-        <v>6.214266177105618</v>
+        <v>6.214266177105619</v>
       </c>
       <c r="I26" t="n">
-        <v>23.39318899478721</v>
+        <v>23.39318899478722</v>
       </c>
       <c r="J26" t="n">
-        <v>51.5003611814103</v>
+        <v>51.50036118141032</v>
       </c>
       <c r="K26" t="n">
-        <v>77.18569131951656</v>
+        <v>77.18569131951659</v>
       </c>
       <c r="L26" t="n">
-        <v>95.75567530756453</v>
+        <v>95.75567530756457</v>
       </c>
       <c r="M26" t="n">
         <v>106.5466389230511</v>
@@ -32962,22 +32962,22 @@
         <v>102.2369281433228</v>
       </c>
       <c r="P26" t="n">
-        <v>87.25685283539701</v>
+        <v>87.25685283539704</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.52626257858313</v>
+        <v>65.52626257858316</v>
       </c>
       <c r="R26" t="n">
-        <v>38.11613794679467</v>
+        <v>38.11613794679469</v>
       </c>
       <c r="S26" t="n">
         <v>13.8271783728348</v>
       </c>
       <c r="T26" t="n">
-        <v>2.6562138596636</v>
+        <v>2.656213859663601</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04854302884593669</v>
+        <v>0.04854302884593671</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,43 +33014,43 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.324660127476097</v>
+        <v>0.3246601274760971</v>
       </c>
       <c r="H27" t="n">
-        <v>3.135533336413884</v>
+        <v>3.135533336413885</v>
       </c>
       <c r="I27" t="n">
         <v>11.17799123108492</v>
       </c>
       <c r="J27" t="n">
-        <v>30.67326230685353</v>
+        <v>30.67326230685354</v>
       </c>
       <c r="K27" t="n">
-        <v>52.42549084775203</v>
+        <v>52.42549084775204</v>
       </c>
       <c r="L27" t="n">
-        <v>70.49254215221133</v>
+        <v>70.49254215221134</v>
       </c>
       <c r="M27" t="n">
-        <v>82.26147177321981</v>
+        <v>82.26147177321985</v>
       </c>
       <c r="N27" t="n">
-        <v>84.43868815440823</v>
+        <v>84.43868815440825</v>
       </c>
       <c r="O27" t="n">
-        <v>77.24490322454312</v>
+        <v>77.24490322454315</v>
       </c>
       <c r="P27" t="n">
-        <v>61.99584486865925</v>
+        <v>61.99584486865928</v>
       </c>
       <c r="Q27" t="n">
-        <v>41.44258048273827</v>
+        <v>41.44258048273829</v>
       </c>
       <c r="R27" t="n">
         <v>20.15740686206856</v>
       </c>
       <c r="S27" t="n">
-        <v>6.030419473075744</v>
+        <v>6.030419473075747</v>
       </c>
       <c r="T27" t="n">
         <v>1.308608145397075</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2721841448354393</v>
+        <v>0.2721841448354394</v>
       </c>
       <c r="H28" t="n">
-        <v>2.419964487718726</v>
+        <v>2.419964487718727</v>
       </c>
       <c r="I28" t="n">
-        <v>8.185319555596669</v>
+        <v>8.185319555596672</v>
       </c>
       <c r="J28" t="n">
         <v>19.24341903986556</v>
       </c>
       <c r="K28" t="n">
-        <v>31.62284882724467</v>
+        <v>31.62284882724468</v>
       </c>
       <c r="L28" t="n">
-        <v>40.46635913307978</v>
+        <v>40.46635913307979</v>
       </c>
       <c r="M28" t="n">
-        <v>42.66610190361345</v>
+        <v>42.66610190361347</v>
       </c>
       <c r="N28" t="n">
-        <v>41.6515973637723</v>
+        <v>41.65159736377232</v>
       </c>
       <c r="O28" t="n">
-        <v>38.47199167183102</v>
+        <v>38.47199167183103</v>
       </c>
       <c r="P28" t="n">
-        <v>32.91943511718803</v>
+        <v>32.91943511718804</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.79171052799301</v>
+        <v>22.79171052799303</v>
       </c>
       <c r="R28" t="n">
-        <v>12.23838891232802</v>
+        <v>12.23838891232803</v>
       </c>
       <c r="S28" t="n">
-        <v>4.7434273240867</v>
+        <v>4.743427324086702</v>
       </c>
       <c r="T28" t="n">
-        <v>1.162968618842331</v>
+        <v>1.162968618842332</v>
       </c>
       <c r="U28" t="n">
         <v>0.01484640790011489</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6067878605742087</v>
+        <v>0.6067878605742085</v>
       </c>
       <c r="H29" t="n">
-        <v>6.214266177105618</v>
+        <v>6.214266177105615</v>
       </c>
       <c r="I29" t="n">
-        <v>23.39318899478721</v>
+        <v>23.3931889947872</v>
       </c>
       <c r="J29" t="n">
-        <v>51.5003611814103</v>
+        <v>51.50036118141028</v>
       </c>
       <c r="K29" t="n">
-        <v>77.18569131951656</v>
+        <v>77.18569131951654</v>
       </c>
       <c r="L29" t="n">
-        <v>95.75567530756453</v>
+        <v>95.7556753075645</v>
       </c>
       <c r="M29" t="n">
         <v>106.5466389230511</v>
       </c>
       <c r="N29" t="n">
-        <v>108.2706749319076</v>
+        <v>108.2706749319075</v>
       </c>
       <c r="O29" t="n">
         <v>102.2369281433228</v>
       </c>
       <c r="P29" t="n">
-        <v>87.25685283539701</v>
+        <v>87.25685283539697</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.52626257858313</v>
+        <v>65.52626257858311</v>
       </c>
       <c r="R29" t="n">
-        <v>38.11613794679467</v>
+        <v>38.11613794679466</v>
       </c>
       <c r="S29" t="n">
-        <v>13.8271783728348</v>
+        <v>13.82717837283479</v>
       </c>
       <c r="T29" t="n">
-        <v>2.6562138596636</v>
+        <v>2.656213859663599</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04854302884593669</v>
+        <v>0.04854302884593668</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.324660127476097</v>
+        <v>0.3246601274760968</v>
       </c>
       <c r="H30" t="n">
-        <v>3.135533336413884</v>
+        <v>3.135533336413883</v>
       </c>
       <c r="I30" t="n">
         <v>11.17799123108492</v>
       </c>
       <c r="J30" t="n">
-        <v>30.67326230685353</v>
+        <v>30.67326230685352</v>
       </c>
       <c r="K30" t="n">
-        <v>52.42549084775203</v>
+        <v>52.42549084775201</v>
       </c>
       <c r="L30" t="n">
-        <v>70.49254215221133</v>
+        <v>70.4925421522113</v>
       </c>
       <c r="M30" t="n">
-        <v>82.26147177321981</v>
+        <v>82.26147177321978</v>
       </c>
       <c r="N30" t="n">
-        <v>84.43868815440823</v>
+        <v>84.43868815440818</v>
       </c>
       <c r="O30" t="n">
-        <v>77.24490322454312</v>
+        <v>77.24490322454309</v>
       </c>
       <c r="P30" t="n">
-        <v>61.99584486865925</v>
+        <v>61.99584486865923</v>
       </c>
       <c r="Q30" t="n">
-        <v>41.44258048273827</v>
+        <v>41.44258048273826</v>
       </c>
       <c r="R30" t="n">
-        <v>20.15740686206856</v>
+        <v>20.15740686206855</v>
       </c>
       <c r="S30" t="n">
-        <v>6.030419473075744</v>
+        <v>6.030419473075742</v>
       </c>
       <c r="T30" t="n">
-        <v>1.308608145397075</v>
+        <v>1.308608145397074</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02135921891290113</v>
+        <v>0.02135921891290112</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,34 +33330,34 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2721841448354393</v>
+        <v>0.2721841448354392</v>
       </c>
       <c r="H31" t="n">
-        <v>2.419964487718726</v>
+        <v>2.419964487718725</v>
       </c>
       <c r="I31" t="n">
-        <v>8.185319555596669</v>
+        <v>8.185319555596665</v>
       </c>
       <c r="J31" t="n">
-        <v>19.24341903986556</v>
+        <v>19.24341903986555</v>
       </c>
       <c r="K31" t="n">
-        <v>31.62284882724467</v>
+        <v>31.62284882724466</v>
       </c>
       <c r="L31" t="n">
-        <v>40.46635913307978</v>
+        <v>40.46635913307976</v>
       </c>
       <c r="M31" t="n">
-        <v>42.66610190361345</v>
+        <v>42.66610190361344</v>
       </c>
       <c r="N31" t="n">
-        <v>41.6515973637723</v>
+        <v>41.65159736377229</v>
       </c>
       <c r="O31" t="n">
-        <v>38.47199167183102</v>
+        <v>38.47199167183101</v>
       </c>
       <c r="P31" t="n">
-        <v>32.91943511718803</v>
+        <v>32.91943511718802</v>
       </c>
       <c r="Q31" t="n">
         <v>22.79171052799301</v>
@@ -33366,13 +33366,13 @@
         <v>12.23838891232802</v>
       </c>
       <c r="S31" t="n">
-        <v>4.7434273240867</v>
+        <v>4.743427324086698</v>
       </c>
       <c r="T31" t="n">
         <v>1.162968618842331</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01484640790011489</v>
+        <v>0.01484640790011488</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6067878605742087</v>
+        <v>0.6067878605742085</v>
       </c>
       <c r="H32" t="n">
-        <v>6.214266177105618</v>
+        <v>6.214266177105615</v>
       </c>
       <c r="I32" t="n">
-        <v>23.39318899478721</v>
+        <v>23.3931889947872</v>
       </c>
       <c r="J32" t="n">
-        <v>51.5003611814103</v>
+        <v>51.50036118141028</v>
       </c>
       <c r="K32" t="n">
-        <v>77.18569131951656</v>
+        <v>77.18569131951654</v>
       </c>
       <c r="L32" t="n">
-        <v>95.75567530756453</v>
+        <v>95.7556753075645</v>
       </c>
       <c r="M32" t="n">
         <v>106.5466389230511</v>
       </c>
       <c r="N32" t="n">
-        <v>108.2706749319076</v>
+        <v>108.2706749319075</v>
       </c>
       <c r="O32" t="n">
         <v>102.2369281433228</v>
       </c>
       <c r="P32" t="n">
-        <v>87.25685283539701</v>
+        <v>87.25685283539697</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.52626257858313</v>
+        <v>65.52626257858311</v>
       </c>
       <c r="R32" t="n">
-        <v>38.11613794679467</v>
+        <v>38.11613794679466</v>
       </c>
       <c r="S32" t="n">
-        <v>13.8271783728348</v>
+        <v>13.82717837283479</v>
       </c>
       <c r="T32" t="n">
-        <v>2.6562138596636</v>
+        <v>2.656213859663599</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04854302884593669</v>
+        <v>0.04854302884593668</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.324660127476097</v>
+        <v>0.3246601274760968</v>
       </c>
       <c r="H33" t="n">
-        <v>3.135533336413884</v>
+        <v>3.135533336413883</v>
       </c>
       <c r="I33" t="n">
         <v>11.17799123108492</v>
       </c>
       <c r="J33" t="n">
-        <v>30.67326230685353</v>
+        <v>30.67326230685352</v>
       </c>
       <c r="K33" t="n">
-        <v>52.42549084775203</v>
+        <v>52.42549084775201</v>
       </c>
       <c r="L33" t="n">
-        <v>70.49254215221133</v>
+        <v>70.4925421522113</v>
       </c>
       <c r="M33" t="n">
-        <v>82.26147177321981</v>
+        <v>82.26147177321978</v>
       </c>
       <c r="N33" t="n">
-        <v>84.43868815440823</v>
+        <v>84.43868815440818</v>
       </c>
       <c r="O33" t="n">
-        <v>77.24490322454312</v>
+        <v>77.24490322454309</v>
       </c>
       <c r="P33" t="n">
-        <v>61.99584486865925</v>
+        <v>61.99584486865923</v>
       </c>
       <c r="Q33" t="n">
-        <v>41.44258048273827</v>
+        <v>41.44258048273826</v>
       </c>
       <c r="R33" t="n">
-        <v>20.15740686206856</v>
+        <v>20.15740686206855</v>
       </c>
       <c r="S33" t="n">
-        <v>6.030419473075744</v>
+        <v>6.030419473075742</v>
       </c>
       <c r="T33" t="n">
-        <v>1.308608145397075</v>
+        <v>1.308608145397074</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02135921891290113</v>
+        <v>0.02135921891290112</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,34 +33567,34 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2721841448354393</v>
+        <v>0.2721841448354392</v>
       </c>
       <c r="H34" t="n">
-        <v>2.419964487718726</v>
+        <v>2.419964487718725</v>
       </c>
       <c r="I34" t="n">
-        <v>8.185319555596669</v>
+        <v>8.185319555596665</v>
       </c>
       <c r="J34" t="n">
-        <v>19.24341903986556</v>
+        <v>19.24341903986555</v>
       </c>
       <c r="K34" t="n">
-        <v>31.62284882724467</v>
+        <v>31.62284882724466</v>
       </c>
       <c r="L34" t="n">
-        <v>40.46635913307978</v>
+        <v>40.46635913307976</v>
       </c>
       <c r="M34" t="n">
-        <v>42.66610190361345</v>
+        <v>42.66610190361344</v>
       </c>
       <c r="N34" t="n">
-        <v>41.6515973637723</v>
+        <v>41.65159736377229</v>
       </c>
       <c r="O34" t="n">
-        <v>38.47199167183102</v>
+        <v>38.47199167183101</v>
       </c>
       <c r="P34" t="n">
-        <v>32.91943511718803</v>
+        <v>32.91943511718802</v>
       </c>
       <c r="Q34" t="n">
         <v>22.79171052799301</v>
@@ -33603,13 +33603,13 @@
         <v>12.23838891232802</v>
       </c>
       <c r="S34" t="n">
-        <v>4.7434273240867</v>
+        <v>4.743427324086698</v>
       </c>
       <c r="T34" t="n">
         <v>1.162968618842331</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01484640790011489</v>
+        <v>0.01484640790011488</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6067878605742087</v>
+        <v>0.6067878605742085</v>
       </c>
       <c r="H35" t="n">
-        <v>6.214266177105618</v>
+        <v>6.214266177105615</v>
       </c>
       <c r="I35" t="n">
-        <v>23.39318899478721</v>
+        <v>23.3931889947872</v>
       </c>
       <c r="J35" t="n">
-        <v>51.5003611814103</v>
+        <v>51.50036118141028</v>
       </c>
       <c r="K35" t="n">
-        <v>77.18569131951656</v>
+        <v>77.18569131951654</v>
       </c>
       <c r="L35" t="n">
-        <v>95.75567530756453</v>
+        <v>95.7556753075645</v>
       </c>
       <c r="M35" t="n">
         <v>106.5466389230511</v>
       </c>
       <c r="N35" t="n">
-        <v>108.2706749319076</v>
+        <v>108.2706749319075</v>
       </c>
       <c r="O35" t="n">
         <v>102.2369281433228</v>
       </c>
       <c r="P35" t="n">
-        <v>87.25685283539701</v>
+        <v>87.25685283539697</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.52626257858313</v>
+        <v>65.52626257858311</v>
       </c>
       <c r="R35" t="n">
-        <v>38.11613794679467</v>
+        <v>38.11613794679466</v>
       </c>
       <c r="S35" t="n">
-        <v>13.8271783728348</v>
+        <v>13.82717837283479</v>
       </c>
       <c r="T35" t="n">
-        <v>2.6562138596636</v>
+        <v>2.656213859663599</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04854302884593669</v>
+        <v>0.04854302884593668</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.324660127476097</v>
+        <v>0.3246601274760968</v>
       </c>
       <c r="H36" t="n">
-        <v>3.135533336413884</v>
+        <v>3.135533336413883</v>
       </c>
       <c r="I36" t="n">
         <v>11.17799123108492</v>
       </c>
       <c r="J36" t="n">
-        <v>30.67326230685353</v>
+        <v>30.67326230685352</v>
       </c>
       <c r="K36" t="n">
-        <v>52.42549084775203</v>
+        <v>52.42549084775201</v>
       </c>
       <c r="L36" t="n">
-        <v>70.49254215221133</v>
+        <v>70.4925421522113</v>
       </c>
       <c r="M36" t="n">
-        <v>82.26147177321981</v>
+        <v>82.26147177321978</v>
       </c>
       <c r="N36" t="n">
-        <v>84.43868815440823</v>
+        <v>84.43868815440818</v>
       </c>
       <c r="O36" t="n">
-        <v>77.24490322454312</v>
+        <v>77.24490322454309</v>
       </c>
       <c r="P36" t="n">
-        <v>61.99584486865925</v>
+        <v>61.99584486865923</v>
       </c>
       <c r="Q36" t="n">
-        <v>41.44258048273827</v>
+        <v>41.44258048273826</v>
       </c>
       <c r="R36" t="n">
-        <v>20.15740686206856</v>
+        <v>20.15740686206855</v>
       </c>
       <c r="S36" t="n">
-        <v>6.030419473075744</v>
+        <v>6.030419473075742</v>
       </c>
       <c r="T36" t="n">
-        <v>1.308608145397075</v>
+        <v>1.308608145397074</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02135921891290113</v>
+        <v>0.02135921891290112</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,34 +33804,34 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2721841448354393</v>
+        <v>0.2721841448354392</v>
       </c>
       <c r="H37" t="n">
-        <v>2.419964487718726</v>
+        <v>2.419964487718725</v>
       </c>
       <c r="I37" t="n">
-        <v>8.185319555596669</v>
+        <v>8.185319555596665</v>
       </c>
       <c r="J37" t="n">
-        <v>19.24341903986556</v>
+        <v>19.24341903986555</v>
       </c>
       <c r="K37" t="n">
-        <v>31.62284882724467</v>
+        <v>31.62284882724466</v>
       </c>
       <c r="L37" t="n">
-        <v>40.46635913307978</v>
+        <v>40.46635913307976</v>
       </c>
       <c r="M37" t="n">
-        <v>42.66610190361345</v>
+        <v>42.66610190361344</v>
       </c>
       <c r="N37" t="n">
-        <v>41.6515973637723</v>
+        <v>41.65159736377229</v>
       </c>
       <c r="O37" t="n">
-        <v>38.47199167183102</v>
+        <v>38.47199167183101</v>
       </c>
       <c r="P37" t="n">
-        <v>32.91943511718803</v>
+        <v>32.91943511718802</v>
       </c>
       <c r="Q37" t="n">
         <v>22.79171052799301</v>
@@ -33840,13 +33840,13 @@
         <v>12.23838891232802</v>
       </c>
       <c r="S37" t="n">
-        <v>4.7434273240867</v>
+        <v>4.743427324086698</v>
       </c>
       <c r="T37" t="n">
         <v>1.162968618842331</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01484640790011489</v>
+        <v>0.01484640790011488</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6067878605742087</v>
+        <v>0.6067878605742085</v>
       </c>
       <c r="H38" t="n">
-        <v>6.214266177105618</v>
+        <v>6.214266177105615</v>
       </c>
       <c r="I38" t="n">
-        <v>23.39318899478721</v>
+        <v>23.3931889947872</v>
       </c>
       <c r="J38" t="n">
-        <v>51.5003611814103</v>
+        <v>51.50036118141028</v>
       </c>
       <c r="K38" t="n">
-        <v>77.18569131951656</v>
+        <v>77.18569131951654</v>
       </c>
       <c r="L38" t="n">
-        <v>95.75567530756453</v>
+        <v>95.7556753075645</v>
       </c>
       <c r="M38" t="n">
         <v>106.5466389230511</v>
       </c>
       <c r="N38" t="n">
-        <v>108.2706749319076</v>
+        <v>108.2706749319075</v>
       </c>
       <c r="O38" t="n">
         <v>102.2369281433228</v>
       </c>
       <c r="P38" t="n">
-        <v>87.25685283539701</v>
+        <v>87.25685283539697</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.52626257858313</v>
+        <v>65.52626257858311</v>
       </c>
       <c r="R38" t="n">
-        <v>38.11613794679467</v>
+        <v>38.11613794679466</v>
       </c>
       <c r="S38" t="n">
-        <v>13.8271783728348</v>
+        <v>13.82717837283479</v>
       </c>
       <c r="T38" t="n">
-        <v>2.6562138596636</v>
+        <v>2.656213859663599</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04854302884593669</v>
+        <v>0.04854302884593668</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.324660127476097</v>
+        <v>0.3246601274760968</v>
       </c>
       <c r="H39" t="n">
-        <v>3.135533336413884</v>
+        <v>3.135533336413883</v>
       </c>
       <c r="I39" t="n">
         <v>11.17799123108492</v>
       </c>
       <c r="J39" t="n">
-        <v>30.67326230685353</v>
+        <v>30.67326230685352</v>
       </c>
       <c r="K39" t="n">
-        <v>52.42549084775203</v>
+        <v>52.42549084775201</v>
       </c>
       <c r="L39" t="n">
-        <v>70.49254215221133</v>
+        <v>70.4925421522113</v>
       </c>
       <c r="M39" t="n">
-        <v>82.26147177321981</v>
+        <v>82.26147177321978</v>
       </c>
       <c r="N39" t="n">
-        <v>84.43868815440823</v>
+        <v>84.43868815440818</v>
       </c>
       <c r="O39" t="n">
-        <v>77.24490322454312</v>
+        <v>77.24490322454309</v>
       </c>
       <c r="P39" t="n">
-        <v>61.99584486865925</v>
+        <v>61.99584486865923</v>
       </c>
       <c r="Q39" t="n">
-        <v>41.44258048273827</v>
+        <v>41.44258048273826</v>
       </c>
       <c r="R39" t="n">
-        <v>20.15740686206856</v>
+        <v>20.15740686206855</v>
       </c>
       <c r="S39" t="n">
-        <v>6.030419473075744</v>
+        <v>6.030419473075742</v>
       </c>
       <c r="T39" t="n">
-        <v>1.308608145397075</v>
+        <v>1.308608145397074</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02135921891290113</v>
+        <v>0.02135921891290112</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,34 +34041,34 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2721841448354393</v>
+        <v>0.2721841448354392</v>
       </c>
       <c r="H40" t="n">
-        <v>2.419964487718726</v>
+        <v>2.419964487718725</v>
       </c>
       <c r="I40" t="n">
-        <v>8.185319555596669</v>
+        <v>8.185319555596665</v>
       </c>
       <c r="J40" t="n">
-        <v>19.24341903986556</v>
+        <v>19.24341903986555</v>
       </c>
       <c r="K40" t="n">
-        <v>31.62284882724467</v>
+        <v>31.62284882724466</v>
       </c>
       <c r="L40" t="n">
-        <v>40.46635913307978</v>
+        <v>40.46635913307976</v>
       </c>
       <c r="M40" t="n">
-        <v>42.66610190361345</v>
+        <v>42.66610190361344</v>
       </c>
       <c r="N40" t="n">
-        <v>41.6515973637723</v>
+        <v>41.65159736377229</v>
       </c>
       <c r="O40" t="n">
-        <v>38.47199167183102</v>
+        <v>38.47199167183101</v>
       </c>
       <c r="P40" t="n">
-        <v>32.91943511718803</v>
+        <v>32.91943511718802</v>
       </c>
       <c r="Q40" t="n">
         <v>22.79171052799301</v>
@@ -34077,13 +34077,13 @@
         <v>12.23838891232802</v>
       </c>
       <c r="S40" t="n">
-        <v>4.7434273240867</v>
+        <v>4.743427324086698</v>
       </c>
       <c r="T40" t="n">
         <v>1.162968618842331</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01484640790011489</v>
+        <v>0.01484640790011488</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6067878605742087</v>
+        <v>0.6067878605742085</v>
       </c>
       <c r="H41" t="n">
-        <v>6.214266177105618</v>
+        <v>6.214266177105615</v>
       </c>
       <c r="I41" t="n">
-        <v>23.39318899478721</v>
+        <v>23.3931889947872</v>
       </c>
       <c r="J41" t="n">
-        <v>51.5003611814103</v>
+        <v>51.50036118141028</v>
       </c>
       <c r="K41" t="n">
-        <v>77.18569131951656</v>
+        <v>77.18569131951654</v>
       </c>
       <c r="L41" t="n">
-        <v>95.75567530756453</v>
+        <v>95.7556753075645</v>
       </c>
       <c r="M41" t="n">
         <v>106.5466389230511</v>
       </c>
       <c r="N41" t="n">
-        <v>108.2706749319076</v>
+        <v>108.2706749319075</v>
       </c>
       <c r="O41" t="n">
         <v>102.2369281433228</v>
       </c>
       <c r="P41" t="n">
-        <v>87.25685283539701</v>
+        <v>87.25685283539697</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.52626257858313</v>
+        <v>65.52626257858311</v>
       </c>
       <c r="R41" t="n">
-        <v>38.11613794679467</v>
+        <v>38.11613794679466</v>
       </c>
       <c r="S41" t="n">
-        <v>13.8271783728348</v>
+        <v>13.82717837283479</v>
       </c>
       <c r="T41" t="n">
-        <v>2.6562138596636</v>
+        <v>2.656213859663599</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04854302884593669</v>
+        <v>0.04854302884593668</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.324660127476097</v>
+        <v>0.3246601274760968</v>
       </c>
       <c r="H42" t="n">
-        <v>3.135533336413884</v>
+        <v>3.135533336413883</v>
       </c>
       <c r="I42" t="n">
         <v>11.17799123108492</v>
       </c>
       <c r="J42" t="n">
-        <v>30.67326230685353</v>
+        <v>30.67326230685352</v>
       </c>
       <c r="K42" t="n">
-        <v>52.42549084775203</v>
+        <v>52.42549084775201</v>
       </c>
       <c r="L42" t="n">
-        <v>70.49254215221133</v>
+        <v>70.4925421522113</v>
       </c>
       <c r="M42" t="n">
-        <v>82.26147177321981</v>
+        <v>82.26147177321978</v>
       </c>
       <c r="N42" t="n">
-        <v>84.43868815440823</v>
+        <v>84.43868815440818</v>
       </c>
       <c r="O42" t="n">
-        <v>77.24490322454312</v>
+        <v>77.24490322454309</v>
       </c>
       <c r="P42" t="n">
-        <v>61.99584486865925</v>
+        <v>61.99584486865923</v>
       </c>
       <c r="Q42" t="n">
-        <v>41.44258048273827</v>
+        <v>41.44258048273826</v>
       </c>
       <c r="R42" t="n">
-        <v>20.15740686206856</v>
+        <v>20.15740686206855</v>
       </c>
       <c r="S42" t="n">
-        <v>6.030419473075744</v>
+        <v>6.030419473075742</v>
       </c>
       <c r="T42" t="n">
-        <v>1.308608145397075</v>
+        <v>1.308608145397074</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02135921891290113</v>
+        <v>0.02135921891290112</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,34 +34278,34 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2721841448354393</v>
+        <v>0.2721841448354392</v>
       </c>
       <c r="H43" t="n">
-        <v>2.419964487718726</v>
+        <v>2.419964487718725</v>
       </c>
       <c r="I43" t="n">
-        <v>8.185319555596669</v>
+        <v>8.185319555596665</v>
       </c>
       <c r="J43" t="n">
-        <v>19.24341903986556</v>
+        <v>19.24341903986555</v>
       </c>
       <c r="K43" t="n">
-        <v>31.62284882724467</v>
+        <v>31.62284882724466</v>
       </c>
       <c r="L43" t="n">
-        <v>40.46635913307978</v>
+        <v>40.46635913307976</v>
       </c>
       <c r="M43" t="n">
-        <v>42.66610190361345</v>
+        <v>42.66610190361344</v>
       </c>
       <c r="N43" t="n">
-        <v>41.6515973637723</v>
+        <v>41.65159736377229</v>
       </c>
       <c r="O43" t="n">
-        <v>38.47199167183102</v>
+        <v>38.47199167183101</v>
       </c>
       <c r="P43" t="n">
-        <v>32.91943511718803</v>
+        <v>32.91943511718802</v>
       </c>
       <c r="Q43" t="n">
         <v>22.79171052799301</v>
@@ -34314,13 +34314,13 @@
         <v>12.23838891232802</v>
       </c>
       <c r="S43" t="n">
-        <v>4.7434273240867</v>
+        <v>4.743427324086698</v>
       </c>
       <c r="T43" t="n">
         <v>1.162968618842331</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01484640790011489</v>
+        <v>0.01484640790011488</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6067878605742077</v>
+        <v>0.6067878605742085</v>
       </c>
       <c r="H44" t="n">
-        <v>6.214266177105607</v>
+        <v>6.214266177105615</v>
       </c>
       <c r="I44" t="n">
-        <v>23.39318899478717</v>
+        <v>23.3931889947872</v>
       </c>
       <c r="J44" t="n">
-        <v>51.50036118141021</v>
+        <v>51.50036118141028</v>
       </c>
       <c r="K44" t="n">
-        <v>77.18569131951644</v>
+        <v>77.18569131951654</v>
       </c>
       <c r="L44" t="n">
-        <v>95.75567530756437</v>
+        <v>95.7556753075645</v>
       </c>
       <c r="M44" t="n">
-        <v>106.5466389230509</v>
+        <v>106.5466389230511</v>
       </c>
       <c r="N44" t="n">
-        <v>108.2706749319074</v>
+        <v>108.2706749319075</v>
       </c>
       <c r="O44" t="n">
-        <v>102.2369281433226</v>
+        <v>102.2369281433228</v>
       </c>
       <c r="P44" t="n">
-        <v>87.25685283539686</v>
+        <v>87.25685283539697</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.52626257858302</v>
+        <v>65.52626257858311</v>
       </c>
       <c r="R44" t="n">
-        <v>38.11613794679461</v>
+        <v>38.11613794679466</v>
       </c>
       <c r="S44" t="n">
-        <v>13.82717837283477</v>
+        <v>13.82717837283479</v>
       </c>
       <c r="T44" t="n">
-        <v>2.656213859663596</v>
+        <v>2.656213859663599</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04854302884593661</v>
+        <v>0.04854302884593668</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3246601274760964</v>
+        <v>0.3246601274760968</v>
       </c>
       <c r="H45" t="n">
-        <v>3.135533336413879</v>
+        <v>3.135533336413883</v>
       </c>
       <c r="I45" t="n">
-        <v>11.1779912310849</v>
+        <v>11.17799123108492</v>
       </c>
       <c r="J45" t="n">
-        <v>30.67326230685348</v>
+        <v>30.67326230685352</v>
       </c>
       <c r="K45" t="n">
-        <v>52.42549084775194</v>
+        <v>52.42549084775201</v>
       </c>
       <c r="L45" t="n">
-        <v>70.4925421522112</v>
+        <v>70.4925421522113</v>
       </c>
       <c r="M45" t="n">
-        <v>82.26147177321968</v>
+        <v>82.26147177321978</v>
       </c>
       <c r="N45" t="n">
-        <v>84.43868815440808</v>
+        <v>84.43868815440818</v>
       </c>
       <c r="O45" t="n">
-        <v>77.24490322454299</v>
+        <v>77.24490322454309</v>
       </c>
       <c r="P45" t="n">
-        <v>61.99584486865915</v>
+        <v>61.99584486865923</v>
       </c>
       <c r="Q45" t="n">
-        <v>41.44258048273821</v>
+        <v>41.44258048273826</v>
       </c>
       <c r="R45" t="n">
-        <v>20.15740686206852</v>
+        <v>20.15740686206855</v>
       </c>
       <c r="S45" t="n">
-        <v>6.030419473075734</v>
+        <v>6.030419473075742</v>
       </c>
       <c r="T45" t="n">
-        <v>1.308608145397072</v>
+        <v>1.308608145397074</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02135921891290109</v>
+        <v>0.02135921891290112</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2721841448354388</v>
+        <v>0.2721841448354392</v>
       </c>
       <c r="H46" t="n">
-        <v>2.419964487718722</v>
+        <v>2.419964487718725</v>
       </c>
       <c r="I46" t="n">
-        <v>8.185319555596655</v>
+        <v>8.185319555596665</v>
       </c>
       <c r="J46" t="n">
-        <v>19.24341903986553</v>
+        <v>19.24341903986555</v>
       </c>
       <c r="K46" t="n">
-        <v>31.62284882724462</v>
+        <v>31.62284882724466</v>
       </c>
       <c r="L46" t="n">
-        <v>40.46635913307971</v>
+        <v>40.46635913307976</v>
       </c>
       <c r="M46" t="n">
-        <v>42.66610190361338</v>
+        <v>42.66610190361344</v>
       </c>
       <c r="N46" t="n">
-        <v>41.65159736377223</v>
+        <v>41.65159736377229</v>
       </c>
       <c r="O46" t="n">
-        <v>38.47199167183096</v>
+        <v>38.47199167183101</v>
       </c>
       <c r="P46" t="n">
-        <v>32.91943511718797</v>
+        <v>32.91943511718802</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.79171052799298</v>
+        <v>22.79171052799301</v>
       </c>
       <c r="R46" t="n">
-        <v>12.238388912328</v>
+        <v>12.23838891232802</v>
       </c>
       <c r="S46" t="n">
-        <v>4.743427324086692</v>
+        <v>4.743427324086698</v>
       </c>
       <c r="T46" t="n">
-        <v>1.162968618842329</v>
+        <v>1.162968618842331</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01484640790011486</v>
+        <v>0.01484640790011488</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>124.2261634771736</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>319.751723687984</v>
+        <v>319.7517236879841</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>290.7501069136089</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="N11" t="n">
-        <v>374.9385124422571</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="O11" t="n">
-        <v>374.9385124422571</v>
+        <v>97.25790598361417</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>317.718364407168</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>91.53603658271834</v>
       </c>
       <c r="K12" t="n">
         <v>284.2341297974376</v>
       </c>
       <c r="L12" t="n">
-        <v>374.9385124422571</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>165.9452389699832</v>
       </c>
       <c r="N12" t="n">
-        <v>374.9385124422571</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>83.35062620489468</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="P12" t="n">
         <v>367.1432380764343</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>200.8078630944496</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35562,34 +35562,34 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>8.110235266756699e-13</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>65.56647281173296</v>
+        <v>65.56647281173298</v>
       </c>
       <c r="L13" t="n">
-        <v>142.0896716585944</v>
+        <v>142.0896716585945</v>
       </c>
       <c r="M13" t="n">
         <v>161.8514616284637</v>
       </c>
       <c r="N13" t="n">
-        <v>161.2701243835706</v>
+        <v>161.2701243835707</v>
       </c>
       <c r="O13" t="n">
-        <v>137.9302204553559</v>
+        <v>137.930220455356</v>
       </c>
       <c r="P13" t="n">
-        <v>96.52396413550903</v>
+        <v>96.52396413550905</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.186815169423518e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35650,22 +35650,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>359.7894816365093</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="M14" t="n">
-        <v>374.9385124422571</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>374.9385124422571</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="O14" t="n">
-        <v>374.9385124422571</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>198.8771042230401</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>160.912377413469</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>91.53603658271832</v>
+        <v>91.53603658271834</v>
       </c>
       <c r="K15" t="n">
         <v>284.2341297974376</v>
       </c>
       <c r="L15" t="n">
-        <v>374.9385124422571</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>165.945238969984</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>367.1432380764343</v>
+        <v>358.9578276986102</v>
       </c>
       <c r="Q15" t="n">
-        <v>200.8078630944496</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,22 +35805,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>65.56647281173296</v>
+        <v>65.56647281173298</v>
       </c>
       <c r="L16" t="n">
-        <v>142.0896716585944</v>
+        <v>142.0896716585945</v>
       </c>
       <c r="M16" t="n">
         <v>161.8514616284637</v>
       </c>
       <c r="N16" t="n">
-        <v>161.2701243835706</v>
+        <v>161.2701243835707</v>
       </c>
       <c r="O16" t="n">
-        <v>137.9302204553559</v>
+        <v>137.930220455356</v>
       </c>
       <c r="P16" t="n">
-        <v>96.52396413550903</v>
+        <v>96.52396413550905</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>124.2261634771736</v>
       </c>
       <c r="K17" t="n">
-        <v>256.0972522581296</v>
+        <v>319.7517236879841</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="M17" t="n">
-        <v>374.9385124422571</v>
+        <v>187.0578775352283</v>
       </c>
       <c r="N17" t="n">
-        <v>374.9385124422571</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>317.7183644071679</v>
+        <v>317.718364407168</v>
       </c>
       <c r="Q17" t="n">
         <v>160.912377413469</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>91.53603658271832</v>
+        <v>91.53603658271834</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>284.2341297974376</v>
       </c>
       <c r="L18" t="n">
-        <v>374.9385124422571</v>
+        <v>165.9452389699832</v>
       </c>
       <c r="M18" t="n">
-        <v>374.9385124422571</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>374.9385124422571</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="P18" t="n">
-        <v>268.2534450537911</v>
+        <v>367.1432380764343</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>200.8078630944496</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>65.56647281173296</v>
+        <v>65.56647281173298</v>
       </c>
       <c r="L19" t="n">
-        <v>142.0896716585944</v>
+        <v>142.0896716585945</v>
       </c>
       <c r="M19" t="n">
         <v>161.8514616284637</v>
       </c>
       <c r="N19" t="n">
-        <v>161.2701243835706</v>
+        <v>161.2701243835707</v>
       </c>
       <c r="O19" t="n">
-        <v>137.9302204553559</v>
+        <v>137.930220455356</v>
       </c>
       <c r="P19" t="n">
-        <v>96.52396413550903</v>
+        <v>96.52396413550905</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>124.2261634771736</v>
       </c>
       <c r="K20" t="n">
-        <v>319.751723687984</v>
+        <v>319.7517236879841</v>
       </c>
       <c r="L20" t="n">
-        <v>374.9385124422571</v>
+        <v>187.0578775352283</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>290.750106913609</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>374.9385124422571</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>317.718364407168</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>160.912377413469</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>91.53603658271834</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>284.2341297974376</v>
       </c>
       <c r="L21" t="n">
-        <v>359.7894816365093</v>
+        <v>165.9452389699832</v>
       </c>
       <c r="M21" t="n">
-        <v>374.9385124422571</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>374.9385124422571</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>374.9385124422571</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>367.1432380764343</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>200.8078630944496</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>65.56647281173296</v>
+        <v>65.56647281173298</v>
       </c>
       <c r="L22" t="n">
-        <v>142.0896716585944</v>
+        <v>142.0896716585945</v>
       </c>
       <c r="M22" t="n">
         <v>161.8514616284637</v>
       </c>
       <c r="N22" t="n">
-        <v>161.2701243835706</v>
+        <v>161.2701243835707</v>
       </c>
       <c r="O22" t="n">
-        <v>137.9302204553559</v>
+        <v>137.930220455356</v>
       </c>
       <c r="P22" t="n">
-        <v>96.52396413550903</v>
+        <v>96.52396413550905</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36358,22 +36358,22 @@
         <v>124.2261634771736</v>
       </c>
       <c r="K23" t="n">
-        <v>319.751723687984</v>
+        <v>319.7517236879841</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>187.0578775352283</v>
       </c>
       <c r="M23" t="n">
-        <v>187.057877535229</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>374.9385124422571</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>317.7183644071679</v>
+        <v>317.718364407168</v>
       </c>
       <c r="Q23" t="n">
         <v>160.912377413469</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>91.53603658271832</v>
+        <v>91.53603658271834</v>
       </c>
       <c r="K24" t="n">
         <v>284.2341297974376</v>
       </c>
       <c r="L24" t="n">
-        <v>374.9385124422571</v>
+        <v>158.1499646041605</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="O24" t="n">
-        <v>165.9452389699838</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>367.1432380764343</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>200.8078630944496</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>65.56647281173296</v>
+        <v>65.56647281173298</v>
       </c>
       <c r="L25" t="n">
-        <v>142.0896716585944</v>
+        <v>142.0896716585945</v>
       </c>
       <c r="M25" t="n">
         <v>161.8514616284637</v>
       </c>
       <c r="N25" t="n">
-        <v>161.2701243835706</v>
+        <v>161.2701243835707</v>
       </c>
       <c r="O25" t="n">
-        <v>137.9302204553559</v>
+        <v>137.930220455356</v>
       </c>
       <c r="P25" t="n">
-        <v>96.52396413550903</v>
+        <v>96.52396413550905</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>225.3454636993784</v>
       </c>
       <c r="K26" t="n">
-        <v>420.8710239101888</v>
+        <v>420.8710239101889</v>
       </c>
       <c r="L26" t="n">
-        <v>447.1550420600355</v>
+        <v>548.2743422822404</v>
       </c>
       <c r="M26" t="n">
-        <v>549.7469423939483</v>
+        <v>604.8772181887791</v>
       </c>
       <c r="N26" t="n">
         <v>591.5428627174616</v>
@@ -36610,13 +36610,13 @@
         <v>511.4416672269761</v>
       </c>
       <c r="P26" t="n">
-        <v>418.8376646293727</v>
+        <v>317.718364407168</v>
       </c>
       <c r="Q26" t="n">
-        <v>262.0316776356738</v>
+        <v>206.9014018408426</v>
       </c>
       <c r="R26" t="n">
-        <v>49.50353452989427</v>
+        <v>49.5035345298943</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>91.53603658271834</v>
       </c>
       <c r="K27" t="n">
-        <v>47.45255990876074</v>
+        <v>284.2341297974376</v>
       </c>
       <c r="L27" t="n">
-        <v>440.0095574755605</v>
+        <v>278.0273259861499</v>
       </c>
       <c r="M27" t="n">
         <v>572.1941520865798</v>
@@ -36689,10 +36689,10 @@
         <v>473.4064696731804</v>
       </c>
       <c r="P27" t="n">
-        <v>367.1432380764343</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>200.8078630944496</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.90605306210134</v>
+        <v>60.90605306210136</v>
       </c>
       <c r="K28" t="n">
-        <v>166.6857730339377</v>
+        <v>166.6857730339378</v>
       </c>
       <c r="L28" t="n">
-        <v>243.2089718807992</v>
+        <v>243.2089718807993</v>
       </c>
       <c r="M28" t="n">
         <v>262.9707618506685</v>
       </c>
       <c r="N28" t="n">
-        <v>262.3894246057754</v>
+        <v>262.3894246057755</v>
       </c>
       <c r="O28" t="n">
-        <v>239.0495206775607</v>
+        <v>239.0495206775608</v>
       </c>
       <c r="P28" t="n">
-        <v>197.6432643577138</v>
+        <v>197.6432643577139</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.75904281734995</v>
+        <v>85.75904281734998</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>225.3454636993784</v>
+        <v>170.2151879045477</v>
       </c>
       <c r="K29" t="n">
-        <v>420.8710239101888</v>
+        <v>319.7517236879839</v>
       </c>
       <c r="L29" t="n">
         <v>548.2743422822402</v>
       </c>
       <c r="M29" t="n">
-        <v>604.8772181887791</v>
+        <v>604.877218188779</v>
       </c>
       <c r="N29" t="n">
-        <v>490.4235624952568</v>
+        <v>591.5428627174616</v>
       </c>
       <c r="O29" t="n">
-        <v>456.3113914321451</v>
+        <v>511.441667226976</v>
       </c>
       <c r="P29" t="n">
         <v>418.8376646293727</v>
@@ -36853,7 +36853,7 @@
         <v>262.0316776356738</v>
       </c>
       <c r="R29" t="n">
-        <v>49.50353452989429</v>
+        <v>49.50353452989426</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>91.53603658271832</v>
+        <v>91.53603658271831</v>
       </c>
       <c r="K30" t="n">
         <v>284.2341297974376</v>
       </c>
       <c r="L30" t="n">
-        <v>440.0095574755605</v>
+        <v>440.0095574755604</v>
       </c>
       <c r="M30" t="n">
         <v>572.1941520865798</v>
@@ -36926,7 +36926,7 @@
         <v>473.4064696731804</v>
       </c>
       <c r="P30" t="n">
-        <v>367.1432380764343</v>
+        <v>367.1432380764342</v>
       </c>
       <c r="Q30" t="n">
         <v>200.8078630944496</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.90605306210136</v>
+        <v>60.90605306210134</v>
       </c>
       <c r="K31" t="n">
         <v>166.6857730339377</v>
@@ -37002,13 +37002,13 @@
         <v>262.3894246057754</v>
       </c>
       <c r="O31" t="n">
-        <v>239.0495206775607</v>
+        <v>239.0495206775614</v>
       </c>
       <c r="P31" t="n">
         <v>197.6432643577138</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.75904281734996</v>
+        <v>85.75904281734994</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,19 +37075,19 @@
         <v>548.2743422822402</v>
       </c>
       <c r="M32" t="n">
-        <v>604.8772181887791</v>
+        <v>604.877218188779</v>
       </c>
       <c r="N32" t="n">
-        <v>591.5428627174616</v>
+        <v>490.4235624952568</v>
       </c>
       <c r="O32" t="n">
-        <v>410.3223670047713</v>
+        <v>456.3113914321451</v>
       </c>
       <c r="P32" t="n">
         <v>418.8376646293727</v>
       </c>
       <c r="Q32" t="n">
-        <v>206.9014018408435</v>
+        <v>262.0316776356738</v>
       </c>
       <c r="R32" t="n">
         <v>49.50353452989427</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>91.53603658271831</v>
       </c>
       <c r="K33" t="n">
         <v>284.2341297974376</v>
       </c>
       <c r="L33" t="n">
-        <v>440.0095574755605</v>
+        <v>440.0095574755604</v>
       </c>
       <c r="M33" t="n">
         <v>572.1941520865798</v>
       </c>
       <c r="N33" t="n">
-        <v>163.2792007501929</v>
+        <v>272.5510272619243</v>
       </c>
       <c r="O33" t="n">
         <v>473.4064696731804</v>
       </c>
       <c r="P33" t="n">
-        <v>367.1432380764343</v>
+        <v>367.1432380764342</v>
       </c>
       <c r="Q33" t="n">
-        <v>200.8078630944496</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.90605306210134</v>
+        <v>60.90605306210135</v>
       </c>
       <c r="K34" t="n">
         <v>166.6857730339377</v>
@@ -37306,22 +37306,22 @@
         <v>124.2261634771736</v>
       </c>
       <c r="K35" t="n">
-        <v>286.3987464378455</v>
+        <v>319.7517236879839</v>
       </c>
       <c r="L35" t="n">
-        <v>447.1550420600355</v>
+        <v>447.1550420600354</v>
       </c>
       <c r="M35" t="n">
         <v>503.7579179665743</v>
       </c>
       <c r="N35" t="n">
-        <v>490.4235624952568</v>
+        <v>139.352220837951</v>
       </c>
       <c r="O35" t="n">
-        <v>410.3223670047713</v>
+        <v>410.3223670047712</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>317.7183644071679</v>
       </c>
       <c r="Q35" t="n">
         <v>160.912377413469</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>91.53603658271832</v>
+        <v>91.53603658271831</v>
       </c>
       <c r="K36" t="n">
         <v>284.2341297974376</v>
       </c>
       <c r="L36" t="n">
-        <v>440.0095574755605</v>
+        <v>33.81351690545677</v>
       </c>
       <c r="M36" t="n">
-        <v>566.0588821553454</v>
+        <v>572.1941520865798</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>600.8686337333194</v>
       </c>
       <c r="O36" t="n">
         <v>473.4064696731804</v>
       </c>
       <c r="P36" t="n">
-        <v>367.1432380764343</v>
+        <v>367.1432380764342</v>
       </c>
       <c r="Q36" t="n">
-        <v>200.8078630944496</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>65.56647281173296</v>
+        <v>65.56647281173295</v>
       </c>
       <c r="L37" t="n">
         <v>142.0896716585944</v>
@@ -37479,7 +37479,7 @@
         <v>137.9302204553559</v>
       </c>
       <c r="P37" t="n">
-        <v>96.52396413550903</v>
+        <v>96.52396413550902</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.2261634771736</v>
       </c>
       <c r="K38" t="n">
-        <v>92.90654550785167</v>
+        <v>319.7517236879839</v>
       </c>
       <c r="L38" t="n">
-        <v>447.1550420600355</v>
+        <v>447.1550420600354</v>
       </c>
       <c r="M38" t="n">
         <v>503.7579179665743</v>
       </c>
       <c r="N38" t="n">
-        <v>490.4235624952568</v>
+        <v>300.26459825142</v>
       </c>
       <c r="O38" t="n">
-        <v>410.3223670047713</v>
+        <v>410.3223670047712</v>
       </c>
       <c r="P38" t="n">
         <v>317.7183644071679</v>
       </c>
       <c r="Q38" t="n">
-        <v>160.912377413469</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>91.53603658271831</v>
       </c>
       <c r="K39" t="n">
         <v>284.2341297974376</v>
       </c>
       <c r="L39" t="n">
-        <v>440.0095574755605</v>
+        <v>440.0095574755604</v>
       </c>
       <c r="M39" t="n">
         <v>572.1941520865798</v>
       </c>
       <c r="N39" t="n">
-        <v>452.5440047279186</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>473.4064696731804</v>
+        <v>467.2711997419464</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>367.1432380764342</v>
       </c>
       <c r="Q39" t="n">
         <v>200.8078630944496</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>65.56647281173296</v>
+        <v>65.56647281173295</v>
       </c>
       <c r="L40" t="n">
         <v>142.0896716585944</v>
@@ -37716,7 +37716,7 @@
         <v>137.9302204553559</v>
       </c>
       <c r="P40" t="n">
-        <v>96.52396413550903</v>
+        <v>96.52396413550902</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>124.2261634771736</v>
       </c>
       <c r="K41" t="n">
-        <v>319.751723687984</v>
+        <v>319.7517236879839</v>
       </c>
       <c r="L41" t="n">
-        <v>447.1550420600355</v>
+        <v>447.1550420600354</v>
       </c>
       <c r="M41" t="n">
-        <v>503.7579179665743</v>
+        <v>152.6865763092685</v>
       </c>
       <c r="N41" t="n">
         <v>490.4235624952568</v>
       </c>
       <c r="O41" t="n">
-        <v>410.3223670047713</v>
+        <v>410.3223670047712</v>
       </c>
       <c r="P41" t="n">
-        <v>251.7855636405044</v>
+        <v>317.7183644071679</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>160.912377413469</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>91.53603658271832</v>
+        <v>91.53603658271831</v>
       </c>
       <c r="K42" t="n">
         <v>284.2341297974376</v>
       </c>
       <c r="L42" t="n">
-        <v>440.0095574755605</v>
+        <v>440.0095574755604</v>
       </c>
       <c r="M42" t="n">
-        <v>566.0588821553458</v>
+        <v>572.1941520865798</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>473.4064696731804</v>
       </c>
       <c r="P42" t="n">
-        <v>367.1432380764343</v>
+        <v>361.0079681452002</v>
       </c>
       <c r="Q42" t="n">
         <v>200.8078630944496</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>65.56647281173296</v>
+        <v>65.56647281173295</v>
       </c>
       <c r="L43" t="n">
         <v>142.0896716585944</v>
@@ -37953,7 +37953,7 @@
         <v>137.9302204553559</v>
       </c>
       <c r="P43" t="n">
-        <v>96.52396413550903</v>
+        <v>96.52396413550902</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>124.2261634771735</v>
+        <v>124.2261634771736</v>
       </c>
       <c r="K44" t="n">
         <v>319.7517236879839</v>
       </c>
       <c r="L44" t="n">
-        <v>447.1550420600353</v>
+        <v>447.1550420600354</v>
       </c>
       <c r="M44" t="n">
-        <v>152.6865763092692</v>
+        <v>152.6865763092685</v>
       </c>
       <c r="N44" t="n">
-        <v>490.4235624952566</v>
+        <v>490.4235624952568</v>
       </c>
       <c r="O44" t="n">
-        <v>410.3223670047711</v>
+        <v>410.3223670047712</v>
       </c>
       <c r="P44" t="n">
-        <v>317.7183644071678</v>
+        <v>317.7183644071679</v>
       </c>
       <c r="Q44" t="n">
-        <v>160.9123774134689</v>
+        <v>160.912377413469</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>91.53603658271828</v>
+        <v>91.53603658271831</v>
       </c>
       <c r="K45" t="n">
-        <v>284.2341297974374</v>
+        <v>284.2341297974376</v>
       </c>
       <c r="L45" t="n">
-        <v>440.0095574755603</v>
+        <v>433.8742875443265</v>
       </c>
       <c r="M45" t="n">
-        <v>572.1941520865797</v>
+        <v>572.1941520865798</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>467.2711997419466</v>
+        <v>473.4064696731804</v>
       </c>
       <c r="P45" t="n">
         <v>367.1432380764342</v>
       </c>
       <c r="Q45" t="n">
-        <v>200.8078630944495</v>
+        <v>200.8078630944496</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>65.56647281173292</v>
+        <v>65.56647281173295</v>
       </c>
       <c r="L46" t="n">
-        <v>142.0896716585943</v>
+        <v>142.0896716585944</v>
       </c>
       <c r="M46" t="n">
-        <v>161.8514616284636</v>
+        <v>161.8514616284637</v>
       </c>
       <c r="N46" t="n">
         <v>161.2701243835706</v>
@@ -38190,7 +38190,7 @@
         <v>137.9302204553559</v>
       </c>
       <c r="P46" t="n">
-        <v>96.52396413550898</v>
+        <v>96.52396413550902</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
